--- a/data/processed_data/categorized_data/基本信息类_dup_handled.xlsx
+++ b/data/processed_data/categorized_data/基本信息类_dup_handled.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6364" uniqueCount="3922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6331" uniqueCount="3907">
   <si>
     <t>发照日期</t>
   </si>
@@ -11727,51 +11727,6 @@
   </si>
   <si>
     <t>计划发行总额（亿元）_count</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2019</t>
   </si>
   <si>
     <t>投资金额</t>
@@ -85068,7 +85023,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J765"/>
+  <dimension ref="A1:J766"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -85094,16 +85049,16 @@
         <v>3540</v>
       </c>
       <c r="G1" t="s">
-        <v>3918</v>
+        <v>3903</v>
       </c>
       <c r="H1" t="s">
-        <v>3919</v>
+        <v>3904</v>
       </c>
       <c r="I1" t="s">
-        <v>3920</v>
+        <v>3905</v>
       </c>
       <c r="J1" t="s">
-        <v>3921</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -85143,13 +85098,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.002209456473707468</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.002209456473707468</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -85161,7 +85116,7 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.009721608484312859</v>
       </c>
       <c r="I3" t="s">
         <v>2</v>
@@ -85172,28 +85127,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>518</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>467</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3903</v>
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>370000</v>
+        <v>-65556</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3380</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -85204,25 +85159,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>518</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>262</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3904</v>
+        <v>467</v>
+      </c>
+      <c r="E5">
+        <v>1981</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>790000</v>
+        <v>370000</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -85236,28 +85191,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>496</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3905</v>
+        <v>262</v>
+      </c>
+      <c r="E6">
+        <v>1990</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>1000000</v>
+        <v>790000</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -85268,28 +85223,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>144</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>496</v>
+      </c>
+      <c r="E7">
+        <v>1991</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1000000</v>
+      </c>
+      <c r="H7">
         <v>4</v>
-      </c>
-      <c r="B7">
-        <v>64</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>316</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3906</v>
-      </c>
-      <c r="F7">
-        <v>35</v>
-      </c>
-      <c r="G7">
-        <v>1260000</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -85300,25 +85255,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>318</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3907</v>
+        <v>316</v>
+      </c>
+      <c r="E8">
+        <v>1992</v>
       </c>
       <c r="F8">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>2000000</v>
+        <v>2400000</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -85332,25 +85287,25 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>449</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3908</v>
+        <v>318</v>
+      </c>
+      <c r="E9">
+        <v>1993</v>
       </c>
       <c r="F9">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G9">
-        <v>2350000</v>
+        <v>6670000</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -85364,28 +85319,28 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>357</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3909</v>
+        <v>449</v>
+      </c>
+      <c r="E10">
+        <v>1994</v>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="G10">
-        <v>2400000</v>
+        <v>7000000</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>7</v>
@@ -85396,25 +85351,25 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>385</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3910</v>
+        <v>357</v>
+      </c>
+      <c r="E11">
+        <v>1995</v>
       </c>
       <c r="F11">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>2450000</v>
+        <v>9840000</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -85428,25 +85383,25 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>330</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3911</v>
+        <v>385</v>
+      </c>
+      <c r="E12">
+        <v>1996</v>
       </c>
       <c r="F12">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="G12">
-        <v>3000000</v>
+        <v>10610000</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -85460,28 +85415,28 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>290</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3912</v>
+        <v>330</v>
+      </c>
+      <c r="E13">
+        <v>1997</v>
       </c>
       <c r="F13">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="G13">
-        <v>3130000</v>
+        <v>11000000</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>10</v>
@@ -85492,25 +85447,25 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>352</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3913</v>
+        <v>290</v>
+      </c>
+      <c r="E14">
+        <v>1998</v>
       </c>
       <c r="F14">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G14">
-        <v>4200000</v>
+        <v>13440000</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -85524,28 +85479,28 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>494</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3914</v>
+        <v>352</v>
+      </c>
+      <c r="E15">
+        <v>1999</v>
       </c>
       <c r="F15">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="G15">
-        <v>4600000</v>
+        <v>15000000</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>12</v>
@@ -85556,2197 +85511,2196 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>133</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>494</v>
+      </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
+      <c r="F16">
+        <v>145</v>
+      </c>
+      <c r="G16">
+        <v>16900000</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
         <v>125</v>
       </c>
-      <c r="C16" t="e">
+      <c r="E17">
+        <v>2001</v>
+      </c>
+      <c r="F17">
+        <v>110</v>
+      </c>
+      <c r="G17">
+        <v>16990000</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>2002</v>
+      </c>
+      <c r="F18">
+        <v>87</v>
+      </c>
+      <c r="G18">
+        <v>22200000</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>161</v>
+      </c>
+      <c r="E19">
+        <v>2003</v>
+      </c>
+      <c r="F19">
+        <v>77</v>
+      </c>
+      <c r="G19">
+        <v>22800000</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>156</v>
+      </c>
+      <c r="E20">
+        <v>2004</v>
+      </c>
+      <c r="F20">
+        <v>107</v>
+      </c>
+      <c r="G20">
+        <v>24400000</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>93</v>
+      </c>
+      <c r="E21">
+        <v>2005</v>
+      </c>
+      <c r="F21">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>25000000</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>177</v>
+      </c>
+      <c r="E22">
+        <v>2006</v>
+      </c>
+      <c r="F22">
+        <v>86</v>
+      </c>
+      <c r="G22">
+        <v>26100000</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>125</v>
+      </c>
+      <c r="E23">
+        <v>2007</v>
+      </c>
+      <c r="F23">
+        <v>199</v>
+      </c>
+      <c r="G23">
+        <v>26700000</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>167</v>
+      </c>
+      <c r="E24">
+        <v>2008</v>
+      </c>
+      <c r="F24">
+        <v>145</v>
+      </c>
+      <c r="G24">
+        <v>28000000</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>119</v>
+      </c>
+      <c r="E25">
+        <v>2009</v>
+      </c>
+      <c r="F25">
+        <v>169</v>
+      </c>
+      <c r="G25">
+        <v>28500000</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>2010</v>
+      </c>
+      <c r="F26">
+        <v>534</v>
+      </c>
+      <c r="G26">
+        <v>29000000</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>23</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>122</v>
+      </c>
+      <c r="E27">
+        <v>2011</v>
+      </c>
+      <c r="F27">
+        <v>292</v>
+      </c>
+      <c r="G27">
+        <v>29900000</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>24</v>
+      </c>
+      <c r="J27">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>111</v>
+      </c>
+      <c r="E28">
+        <v>2012</v>
+      </c>
+      <c r="F28">
+        <v>160</v>
+      </c>
+      <c r="G28">
+        <v>30000000</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>179</v>
+      </c>
+      <c r="E29">
+        <v>2013</v>
+      </c>
+      <c r="F29">
+        <v>49</v>
+      </c>
+      <c r="G29">
+        <v>32000000</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>172</v>
+      </c>
+      <c r="E30">
+        <v>2014</v>
+      </c>
+      <c r="F30">
+        <v>182</v>
+      </c>
+      <c r="G30">
+        <v>33490000</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>27</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>145</v>
+      </c>
+      <c r="E31">
+        <v>2015</v>
+      </c>
+      <c r="F31">
+        <v>272</v>
+      </c>
+      <c r="G31">
+        <v>33600000</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>213</v>
+      </c>
+      <c r="E32">
+        <v>2016</v>
+      </c>
+      <c r="F32">
+        <v>362</v>
+      </c>
+      <c r="G32">
+        <v>36000000</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>29</v>
+      </c>
+      <c r="J32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>134</v>
+      </c>
+      <c r="E33">
+        <v>2017</v>
+      </c>
+      <c r="F33">
+        <v>464</v>
+      </c>
+      <c r="G33">
+        <v>38000000</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>157</v>
+      </c>
+      <c r="E34">
+        <v>2018</v>
+      </c>
+      <c r="F34">
+        <v>199</v>
+      </c>
+      <c r="G34">
+        <v>39000000</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>99</v>
+      </c>
+      <c r="E35">
+        <v>2019</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>39100000</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="G36">
+        <v>40000000</v>
+      </c>
+      <c r="H36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="G37">
+        <v>42403200</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="G38">
+        <v>45000000</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="G39">
+        <v>46650000</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="G40">
+        <v>47970000</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="G41">
+        <v>49950000</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="G42">
+        <v>49980000</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="G43">
+        <v>50000000</v>
+      </c>
+      <c r="H43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="G44">
+        <v>50400000</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="G45">
+        <v>50800000</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="G46">
+        <v>50900000</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="G47">
+        <v>52930000</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="G48">
+        <v>55000000</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8">
+      <c r="G49">
+        <v>55200000</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8">
+      <c r="G50">
+        <v>57200000</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8">
+      <c r="G51">
+        <v>58670000</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8">
+      <c r="G52">
+        <v>59000000</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8">
+      <c r="G53">
+        <v>65520000</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8">
+      <c r="G54">
+        <v>66000000</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8">
+      <c r="G55">
+        <v>68610000</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8">
+      <c r="G56">
+        <v>70000000</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8">
+      <c r="G57">
+        <v>71300000</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8">
+      <c r="G58">
+        <v>71500000</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8">
+      <c r="G59">
+        <v>72000000</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8">
+      <c r="G60">
+        <v>75000000</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8">
+      <c r="G61">
+        <v>77000000</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8">
+      <c r="G62">
+        <v>79000000</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8">
+      <c r="G63">
+        <v>80000000</v>
+      </c>
+      <c r="H63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8">
+      <c r="G64">
+        <v>81900000</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8">
+      <c r="G65">
+        <v>85000000</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8">
+      <c r="G66">
+        <v>90000000</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8">
+      <c r="G67">
+        <v>90900000</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8">
+      <c r="G68">
+        <v>93070000</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8">
+      <c r="G69">
+        <v>94370000</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8">
+      <c r="G70">
+        <v>98000000</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8">
+      <c r="G71">
+        <v>100000000</v>
+      </c>
+      <c r="H71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8">
+      <c r="G72">
+        <v>100800000</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="G73">
+        <v>107000000</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8">
+      <c r="G74">
+        <v>109000000</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8">
+      <c r="G75">
+        <v>112000000</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8">
+      <c r="G76">
+        <v>119000000</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8">
+      <c r="G77">
+        <v>120000000</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8">
+      <c r="G78">
+        <v>122000000</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8">
+      <c r="G79">
+        <v>123000000</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8">
+      <c r="G80">
+        <v>125000000</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8">
+      <c r="G81">
+        <v>127680000</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8">
+      <c r="G82">
+        <v>136000000</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8">
+      <c r="G83">
+        <v>137000000</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8">
+      <c r="G84">
+        <v>142000000</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8">
+      <c r="G85">
+        <v>145000000</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8">
+      <c r="G86">
+        <v>150000000</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8">
+      <c r="G87">
+        <v>175000000</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8">
+      <c r="G88">
+        <v>177200000</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8">
+      <c r="G89">
+        <v>180000000</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8">
+      <c r="G90">
+        <v>181200000</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8">
+      <c r="G91">
+        <v>185000000</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8">
+      <c r="G92">
+        <v>190000000</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="7:8">
+      <c r="G93">
+        <v>198000000</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="7:8">
+      <c r="G94">
+        <v>198900000</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
+      <c r="G95">
+        <v>200000000</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8">
+      <c r="G96">
+        <v>201000000</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8">
+      <c r="G97">
+        <v>201600000</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8">
+      <c r="G98">
+        <v>202900000</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8">
+      <c r="G99">
+        <v>214060000</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8">
+      <c r="G100">
+        <v>220000000</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8">
+      <c r="G101">
+        <v>227000000</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8">
+      <c r="G102">
+        <v>229000000</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8">
+      <c r="G103">
+        <v>235000000</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8">
+      <c r="G104">
+        <v>240000000</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="7:8">
+      <c r="G105">
+        <v>244000000</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8">
+      <c r="G106">
+        <v>255000000</v>
+      </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="7:8">
+      <c r="G107">
+        <v>265000000</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="7:8">
+      <c r="G108">
+        <v>268100000</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8">
+      <c r="G109">
+        <v>272000000</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8">
+      <c r="G110">
+        <v>276020000</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8">
+      <c r="G111">
+        <v>280000000</v>
+      </c>
+      <c r="H111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8">
+      <c r="G112">
+        <v>282000000</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8">
+      <c r="G113">
+        <v>290000000</v>
+      </c>
+      <c r="H113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8">
+      <c r="G114">
+        <v>292000000</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8">
+      <c r="G115">
+        <v>293460000</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8">
+      <c r="G116">
+        <v>296800000</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8">
+      <c r="G117">
+        <v>298000000</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8">
+      <c r="G118">
+        <v>300000000</v>
+      </c>
+      <c r="H118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8">
+      <c r="G119">
+        <v>300500000</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8">
+      <c r="G120">
+        <v>303000000</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8">
+      <c r="G121">
+        <v>319000000</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8">
+      <c r="G122">
+        <v>325000000</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8">
+      <c r="G123">
+        <v>328000000</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="7:8">
+      <c r="G124">
+        <v>331000000</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8">
+      <c r="G125">
+        <v>337000000</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8">
+      <c r="G126">
+        <v>343000000</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8">
+      <c r="G127">
+        <v>354000000</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8">
+      <c r="G128">
+        <v>356550000</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="7:8">
+      <c r="G129">
+        <v>357000000</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8">
+      <c r="G130">
+        <v>364000000</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8">
+      <c r="G131">
+        <v>365000000</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8">
+      <c r="G132">
+        <v>367200000</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8">
+      <c r="G133">
+        <v>368000000</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8">
+      <c r="G134">
+        <v>369600000</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8">
+      <c r="G135">
+        <v>385000000</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8">
+      <c r="G136">
+        <v>399000000</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8">
+      <c r="G137">
+        <v>400750000</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8">
+      <c r="G138">
+        <v>401200000</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="7:8">
+      <c r="G139">
+        <v>405000000</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="7:8">
+      <c r="G140">
+        <v>407000000</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="7:8">
+      <c r="G141">
+        <v>421000000</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="7:8">
+      <c r="G142">
+        <v>423360000</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="7:8">
+      <c r="G143">
+        <v>442650000</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="7:8">
+      <c r="G144">
+        <v>443580000</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8">
+      <c r="G145">
+        <v>445000000</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="7:8">
+      <c r="G146">
+        <v>470000000</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="7:8">
+      <c r="G147">
+        <v>470400000</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="7:8">
+      <c r="G148">
+        <v>473000000</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="7:8">
+      <c r="G149">
+        <v>477000000</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="7:8">
+      <c r="G150">
+        <v>478000000</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="7:8">
+      <c r="G151">
+        <v>483000000</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="7:8">
+      <c r="G152">
+        <v>488000000</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="7:8">
+      <c r="G153">
+        <v>495040000</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="7:8">
+      <c r="G154">
+        <v>518000000</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="7:8">
+      <c r="G155">
+        <v>524000000</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="7:8">
+      <c r="G156">
+        <v>528000000</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="7:8">
+      <c r="G157">
+        <v>530000000</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="7:8">
+      <c r="G158">
+        <v>551000000</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="7:8">
+      <c r="G159">
+        <v>552000000</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="7:8">
+      <c r="G160">
+        <v>562000000</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="7:8">
+      <c r="G161">
+        <v>580000000</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="7:8">
+      <c r="G162">
+        <v>590000000</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="7:8">
+      <c r="G163">
+        <v>600000000</v>
+      </c>
+      <c r="H163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="7:8">
+      <c r="G164">
+        <v>610000000</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="7:8">
+      <c r="G165">
+        <v>617000000</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="7:8">
+      <c r="G166">
+        <v>638000000</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="7:8">
+      <c r="G167">
+        <v>640000000</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="7:8">
+      <c r="G168">
+        <v>645000000</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="7:8">
+      <c r="G169">
+        <v>660000000</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="7:8">
+      <c r="G170">
+        <v>705000000</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="7:8">
+      <c r="G171">
+        <v>730000000</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="7:8">
+      <c r="G172">
+        <v>751000000</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="7:8">
+      <c r="G173">
+        <v>757000000</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="7:8">
+      <c r="G174">
+        <v>760000000</v>
+      </c>
+      <c r="H174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="7:8">
+      <c r="G175">
+        <v>766000000</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="7:8">
+      <c r="G176">
+        <v>767000000</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="7:8">
+      <c r="G177">
+        <v>782000000</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="7:8">
+      <c r="G178">
+        <v>789000000</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="7:8">
+      <c r="G179">
+        <v>796000000</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="7:8">
+      <c r="G180">
+        <v>806000000</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="7:8">
+      <c r="G181">
+        <v>824000000</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="7:8">
+      <c r="G182">
+        <v>843000000</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="7:8">
+      <c r="G183">
+        <v>846000000</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="7:8">
+      <c r="G184">
+        <v>869990000</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="7:8">
+      <c r="G185">
+        <v>881000000</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="7:8">
+      <c r="G186">
+        <v>896250000</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="7:8">
+      <c r="G187">
+        <v>943000000</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="7:8">
+      <c r="G188">
+        <v>952760000</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="7:8">
+      <c r="G189">
+        <v>993000000</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="7:8">
+      <c r="G190">
+        <v>1000000000</v>
+      </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="7:8">
+      <c r="G191">
+        <v>1022000000</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="7:8">
+      <c r="G192">
+        <v>1034000000</v>
+      </c>
+      <c r="H192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="7:8">
+      <c r="G193">
+        <v>1036580000</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="7:8">
+      <c r="G194">
+        <v>1040760000</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="7:8">
+      <c r="G195">
+        <v>1042000000</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="7:8">
+      <c r="G196">
+        <v>1057000000</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="7:8">
+      <c r="G197">
+        <v>1100000000</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="7:8">
+      <c r="G198">
+        <v>1128208000</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="7:8">
+      <c r="G199">
+        <v>1166000000</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="7:8">
+      <c r="G200">
+        <v>1200000000</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="7:8">
+      <c r="G201">
+        <v>1222000000</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="7:8">
+      <c r="G202">
+        <v>1228000000</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="7:8">
+      <c r="G203">
+        <v>1230000000</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="7:8">
+      <c r="G204">
+        <v>1378000000</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="7:8">
+      <c r="G205">
+        <v>1380000000</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="7:8">
+      <c r="G206">
+        <v>1422000000</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="7:8">
+      <c r="G207">
+        <v>1500000000</v>
+      </c>
+      <c r="H207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="7:8">
+      <c r="G208">
+        <v>1512000000</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="7:8">
+      <c r="G209">
+        <v>1524080000</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="7:8">
+      <c r="G210">
+        <v>1630800000</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="7:8">
+      <c r="G211">
+        <v>1700000000</v>
+      </c>
+      <c r="H211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="7:8">
+      <c r="G212">
+        <v>1782000000</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="7:8">
+      <c r="G213">
+        <v>1800000000</v>
+      </c>
+      <c r="H213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="7:8">
+      <c r="G214">
+        <v>1930000000</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="7:8">
+      <c r="G215">
+        <v>2000000000</v>
+      </c>
+      <c r="H215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="7:8">
+      <c r="G216">
+        <v>2066000000</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="7:8">
+      <c r="G217">
+        <v>2093000000</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="7:8">
+      <c r="G218">
+        <v>2150000000</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="7:8">
+      <c r="G219">
+        <v>2450000000</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="7:8">
+      <c r="G220">
+        <v>2520000000</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="7:8">
+      <c r="G221">
+        <v>2782500000</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="7:8">
+      <c r="G222">
+        <v>2816660000</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="7:8">
+      <c r="G223">
+        <v>3000000000</v>
+      </c>
+      <c r="H223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="7:8">
+      <c r="G224">
+        <v>3019200000</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="7:8">
+      <c r="G225">
+        <v>3154000000</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="7:8">
+      <c r="G226">
+        <v>3166000000</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="7:8">
+      <c r="G227">
+        <v>3444000000</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="7:8">
+      <c r="G228">
+        <v>3900000000</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="7:8">
+      <c r="G229">
+        <v>4100000000</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="7:8">
+      <c r="G230">
+        <v>4110000000</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="7:8">
+      <c r="G231">
+        <v>4310000000</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="7:8">
+      <c r="G232">
+        <v>9982000000</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="7:8">
+      <c r="G233">
+        <v>10000000000</v>
+      </c>
+      <c r="H233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="7:8">
+      <c r="G234">
+        <v>10950000000</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="7:8">
+      <c r="G235">
+        <v>13000000000</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="7:8">
+      <c r="G236">
+        <v>17000000000</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="7:8">
+      <c r="G237">
+        <v>20000000000</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="7:8">
+      <c r="G238">
+        <v>22176000000</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="7:8">
+      <c r="G239">
+        <v>28320000000</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="7:8">
+      <c r="G240">
+        <v>29236000000</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="7:8">
+      <c r="G241">
+        <v>30710400000</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="7:8">
+      <c r="G242">
+        <v>37170000000</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="7:8">
+      <c r="G243">
+        <v>50160000000</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="7:8">
+      <c r="G244">
+        <v>78000000000</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="7:8">
+      <c r="G245" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
-      <c r="D16">
+      <c r="H245">
         <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3915</v>
-      </c>
-      <c r="F16">
-        <v>110</v>
-      </c>
-      <c r="G16">
-        <v>5000000</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>13</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3916</v>
-      </c>
-      <c r="F17">
-        <v>87</v>
-      </c>
-      <c r="G17">
-        <v>5220000</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>14</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>161</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3507</v>
-      </c>
-      <c r="F18">
-        <v>77</v>
-      </c>
-      <c r="G18">
-        <v>5250000</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>15</v>
-      </c>
-      <c r="J18">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>156</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3508</v>
-      </c>
-      <c r="F19">
-        <v>107</v>
-      </c>
-      <c r="G19">
-        <v>5700000</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>16</v>
-      </c>
-      <c r="J19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>93</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3509</v>
-      </c>
-      <c r="F20">
-        <v>33</v>
-      </c>
-      <c r="G20">
-        <v>5850000</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>17</v>
-      </c>
-      <c r="J20">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>177</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3510</v>
-      </c>
-      <c r="F21">
-        <v>86</v>
-      </c>
-      <c r="G21">
-        <v>6670000</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>18</v>
-      </c>
-      <c r="J21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>125</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3511</v>
-      </c>
-      <c r="F22">
-        <v>199</v>
-      </c>
-      <c r="G22">
-        <v>6720000</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>19</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>167</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3512</v>
-      </c>
-      <c r="F23">
-        <v>145</v>
-      </c>
-      <c r="G23">
-        <v>6730000</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>20</v>
-      </c>
-      <c r="J23">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>119</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3513</v>
-      </c>
-      <c r="F24">
-        <v>169</v>
-      </c>
-      <c r="G24">
-        <v>7000000</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>21</v>
-      </c>
-      <c r="J24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>127</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3514</v>
-      </c>
-      <c r="F25">
-        <v>534</v>
-      </c>
-      <c r="G25">
-        <v>8000000</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>22</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>122</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3515</v>
-      </c>
-      <c r="F26">
-        <v>292</v>
-      </c>
-      <c r="G26">
-        <v>8320000</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>23</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>111</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3516</v>
-      </c>
-      <c r="F27">
-        <v>160</v>
-      </c>
-      <c r="G27">
-        <v>8990000</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>24</v>
-      </c>
-      <c r="J27">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>179</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3517</v>
-      </c>
-      <c r="F28">
-        <v>49</v>
-      </c>
-      <c r="G28">
-        <v>9000000</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>25</v>
-      </c>
-      <c r="J28">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>172</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3518</v>
-      </c>
-      <c r="F29">
-        <v>182</v>
-      </c>
-      <c r="G29">
-        <v>9490000</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>26</v>
-      </c>
-      <c r="J29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>145</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3519</v>
-      </c>
-      <c r="F30">
-        <v>272</v>
-      </c>
-      <c r="G30">
-        <v>9840000</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>27</v>
-      </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>213</v>
-      </c>
-      <c r="E31" t="s">
-        <v>3520</v>
-      </c>
-      <c r="F31">
-        <v>362</v>
-      </c>
-      <c r="G31">
-        <v>9960000</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>28</v>
-      </c>
-      <c r="J31">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>134</v>
-      </c>
-      <c r="E32" t="s">
-        <v>3521</v>
-      </c>
-      <c r="F32">
-        <v>464</v>
-      </c>
-      <c r="G32">
-        <v>10000000</v>
-      </c>
-      <c r="H32">
-        <v>7</v>
-      </c>
-      <c r="I32">
-        <v>29</v>
-      </c>
-      <c r="J32">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>157</v>
-      </c>
-      <c r="E33" t="s">
-        <v>3522</v>
-      </c>
-      <c r="F33">
-        <v>199</v>
-      </c>
-      <c r="G33">
-        <v>10050000</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>99</v>
-      </c>
-      <c r="E34" t="s">
-        <v>3917</v>
-      </c>
-      <c r="F34">
-        <v>15</v>
-      </c>
-      <c r="G34">
-        <v>10100000</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="e">
-        <f>#NUM!</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3523</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>10320000</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="G36">
-        <v>10600000</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="G37">
-        <v>10610000</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="G38">
-        <v>10940000</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="G39">
-        <v>11000000</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="G40">
-        <v>11930000</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="G41">
-        <v>12000000</v>
-      </c>
-      <c r="H41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="G42">
-        <v>12300000</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="G43">
-        <v>12500000</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="G44">
-        <v>13000000</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="G45">
-        <v>13360000</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="G46">
-        <v>13440000</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="G47">
-        <v>13500000</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="G48">
-        <v>13750000</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="7:8">
-      <c r="G49">
-        <v>14000000</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="7:8">
-      <c r="G50">
-        <v>14100000</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="7:8">
-      <c r="G51">
-        <v>14400000</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="7:8">
-      <c r="G52">
-        <v>14440000</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="7:8">
-      <c r="G53">
-        <v>14600000</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="7:8">
-      <c r="G54">
-        <v>14680000</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="7:8">
-      <c r="G55">
-        <v>15000000</v>
-      </c>
-      <c r="H55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="7:8">
-      <c r="G56">
-        <v>15500000</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="7:8">
-      <c r="G57">
-        <v>16000000</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="7:8">
-      <c r="G58">
-        <v>16800000</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="7:8">
-      <c r="G59">
-        <v>16900000</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="7:8">
-      <c r="G60">
-        <v>16990000</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="7:8">
-      <c r="G61">
-        <v>17100000</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="7:8">
-      <c r="G62">
-        <v>17420000</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="7:8">
-      <c r="G63">
-        <v>17890000</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="7:8">
-      <c r="G64">
-        <v>18000000</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="7:8">
-      <c r="G65">
-        <v>18200000</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="7:8">
-      <c r="G66">
-        <v>18800000</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="7:8">
-      <c r="G67">
-        <v>19000000</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="7:8">
-      <c r="G68">
-        <v>19370000</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="7:8">
-      <c r="G69">
-        <v>19700000</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="7:8">
-      <c r="G70">
-        <v>19710000</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="7:8">
-      <c r="G71">
-        <v>19940000</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="7:8">
-      <c r="G72">
-        <v>20000000</v>
-      </c>
-      <c r="H72">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="7:8">
-      <c r="G73">
-        <v>20160000</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="7:8">
-      <c r="G74">
-        <v>22000000</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="7:8">
-      <c r="G75">
-        <v>22100000</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="7:8">
-      <c r="G76">
-        <v>22200000</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="7:8">
-      <c r="G77">
-        <v>22320000</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="7:8">
-      <c r="G78">
-        <v>22390000</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="7:8">
-      <c r="G79">
-        <v>22750000</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="7:8">
-      <c r="G80">
-        <v>22800000</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="7:8">
-      <c r="G81">
-        <v>24000000</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="7:8">
-      <c r="G82">
-        <v>24400000</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="7:8">
-      <c r="G83">
-        <v>24500000</v>
-      </c>
-      <c r="H83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="7:8">
-      <c r="G84">
-        <v>25000000</v>
-      </c>
-      <c r="H84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="7:8">
-      <c r="G85">
-        <v>25900000</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="7:8">
-      <c r="G86">
-        <v>26000000</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="7:8">
-      <c r="G87">
-        <v>26100000</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="7:8">
-      <c r="G88">
-        <v>26700000</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="7:8">
-      <c r="G89">
-        <v>27000000</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="7:8">
-      <c r="G90">
-        <v>27300000</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="7:8">
-      <c r="G91">
-        <v>27500000</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="7:8">
-      <c r="G92">
-        <v>28000000</v>
-      </c>
-      <c r="H92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="7:8">
-      <c r="G93">
-        <v>28500000</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="7:8">
-      <c r="G94">
-        <v>29000000</v>
-      </c>
-      <c r="H94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="7:8">
-      <c r="G95">
-        <v>29900000</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="7:8">
-      <c r="G96">
-        <v>30000000</v>
-      </c>
-      <c r="H96">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="7:8">
-      <c r="G97">
-        <v>30400000</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="7:8">
-      <c r="G98">
-        <v>31000000</v>
-      </c>
-      <c r="H98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="7:8">
-      <c r="G99">
-        <v>31200000</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="7:8">
-      <c r="G100">
-        <v>31651200</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="7:8">
-      <c r="G101">
-        <v>32000000</v>
-      </c>
-      <c r="H101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="7:8">
-      <c r="G102">
-        <v>32500000</v>
-      </c>
-      <c r="H102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="7:8">
-      <c r="G103">
-        <v>32590000</v>
-      </c>
-      <c r="H103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="7:8">
-      <c r="G104">
-        <v>33000000</v>
-      </c>
-      <c r="H104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="7:8">
-      <c r="G105">
-        <v>33200000</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="7:8">
-      <c r="G106">
-        <v>33490000</v>
-      </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="7:8">
-      <c r="G107">
-        <v>33600000</v>
-      </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="7:8">
-      <c r="G108">
-        <v>35000000</v>
-      </c>
-      <c r="H108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="7:8">
-      <c r="G109">
-        <v>35360000</v>
-      </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="7:8">
-      <c r="G110">
-        <v>36000000</v>
-      </c>
-      <c r="H110">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="7:8">
-      <c r="G111">
-        <v>36200000</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="7:8">
-      <c r="G112">
-        <v>36570000</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="7:8">
-      <c r="G113">
-        <v>38000000</v>
-      </c>
-      <c r="H113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="7:8">
-      <c r="G114">
-        <v>39000000</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="7:8">
-      <c r="G115">
-        <v>39100000</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="7:8">
-      <c r="G116">
-        <v>39420000</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8">
-      <c r="G117">
-        <v>39600000</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8">
-      <c r="G118">
-        <v>40000000</v>
-      </c>
-      <c r="H118">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="7:8">
-      <c r="G119">
-        <v>42000000</v>
-      </c>
-      <c r="H119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="7:8">
-      <c r="G120">
-        <v>42100000</v>
-      </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="7:8">
-      <c r="G121">
-        <v>42403200</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="7:8">
-      <c r="G122">
-        <v>42500000</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="7:8">
-      <c r="G123">
-        <v>43000000</v>
-      </c>
-      <c r="H123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="7:8">
-      <c r="G124">
-        <v>45000000</v>
-      </c>
-      <c r="H124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="7:8">
-      <c r="G125">
-        <v>45740000</v>
-      </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="7:8">
-      <c r="G126">
-        <v>46400000</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="7:8">
-      <c r="G127">
-        <v>46650000</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="7:8">
-      <c r="G128">
-        <v>47000000</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="7:8">
-      <c r="G129">
-        <v>47970000</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="7:8">
-      <c r="G130">
-        <v>48000000</v>
-      </c>
-      <c r="H130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="7:8">
-      <c r="G131">
-        <v>48800000</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="7:8">
-      <c r="G132">
-        <v>49900000</v>
-      </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="7:8">
-      <c r="G133">
-        <v>49950000</v>
-      </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="7:8">
-      <c r="G134">
-        <v>49970000</v>
-      </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="7:8">
-      <c r="G135">
-        <v>49980000</v>
-      </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="7:8">
-      <c r="G136">
-        <v>49990000</v>
-      </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="7:8">
-      <c r="G137">
-        <v>50000000</v>
-      </c>
-      <c r="H137">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="7:8">
-      <c r="G138">
-        <v>50100000</v>
-      </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="7:8">
-      <c r="G139">
-        <v>50400000</v>
-      </c>
-      <c r="H139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="7:8">
-      <c r="G140">
-        <v>50700000</v>
-      </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="7:8">
-      <c r="G141">
-        <v>50800000</v>
-      </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="7:8">
-      <c r="G142">
-        <v>50900000</v>
-      </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="7:8">
-      <c r="G143">
-        <v>51050000</v>
-      </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="7:8">
-      <c r="G144">
-        <v>51072000</v>
-      </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="7:8">
-      <c r="G145">
-        <v>52000000</v>
-      </c>
-      <c r="H145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="7:8">
-      <c r="G146">
-        <v>52930000</v>
-      </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="7:8">
-      <c r="G147">
-        <v>53600000</v>
-      </c>
-      <c r="H147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="7:8">
-      <c r="G148">
-        <v>54000000</v>
-      </c>
-      <c r="H148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="7:8">
-      <c r="G149">
-        <v>54120000</v>
-      </c>
-      <c r="H149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="7:8">
-      <c r="G150">
-        <v>55000000</v>
-      </c>
-      <c r="H150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="7:8">
-      <c r="G151">
-        <v>55200000</v>
-      </c>
-      <c r="H151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="7:8">
-      <c r="G152">
-        <v>57200000</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="7:8">
-      <c r="G153">
-        <v>58670000</v>
-      </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="7:8">
-      <c r="G154">
-        <v>59000000</v>
-      </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="7:8">
-      <c r="G155">
-        <v>59170000</v>
-      </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="7:8">
-      <c r="G156">
-        <v>59800000</v>
-      </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="7:8">
-      <c r="G157">
-        <v>60000000</v>
-      </c>
-      <c r="H157">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="7:8">
-      <c r="G158">
-        <v>60300000</v>
-      </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="7:8">
-      <c r="G159">
-        <v>60400000</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="7:8">
-      <c r="G160">
-        <v>60550000</v>
-      </c>
-      <c r="H160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="7:8">
-      <c r="G161">
-        <v>62300000</v>
-      </c>
-      <c r="H161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="7:8">
-      <c r="G162">
-        <v>62880000</v>
-      </c>
-      <c r="H162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="7:8">
-      <c r="G163">
-        <v>63530000</v>
-      </c>
-      <c r="H163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="7:8">
-      <c r="G164">
-        <v>63600000</v>
-      </c>
-      <c r="H164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="7:8">
-      <c r="G165">
-        <v>64000000</v>
-      </c>
-      <c r="H165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="7:8">
-      <c r="G166">
-        <v>64800000</v>
-      </c>
-      <c r="H166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="7:8">
-      <c r="G167">
-        <v>64900000</v>
-      </c>
-      <c r="H167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="7:8">
-      <c r="G168">
-        <v>65000000</v>
-      </c>
-      <c r="H168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="7:8">
-      <c r="G169">
-        <v>65520000</v>
-      </c>
-      <c r="H169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="7:8">
-      <c r="G170">
-        <v>66000000</v>
-      </c>
-      <c r="H170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="7:8">
-      <c r="G171">
-        <v>66200000</v>
-      </c>
-      <c r="H171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="7:8">
-      <c r="G172">
-        <v>66400000</v>
-      </c>
-      <c r="H172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="7:8">
-      <c r="G173">
-        <v>67000000</v>
-      </c>
-      <c r="H173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="7:8">
-      <c r="G174">
-        <v>67190000</v>
-      </c>
-      <c r="H174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="7:8">
-      <c r="G175">
-        <v>67200000</v>
-      </c>
-      <c r="H175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="7:8">
-      <c r="G176">
-        <v>68610000</v>
-      </c>
-      <c r="H176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="7:8">
-      <c r="G177">
-        <v>68800000</v>
-      </c>
-      <c r="H177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="7:8">
-      <c r="G178">
-        <v>68970000</v>
-      </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="7:8">
-      <c r="G179">
-        <v>70000000</v>
-      </c>
-      <c r="H179">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="7:8">
-      <c r="G180">
-        <v>71300000</v>
-      </c>
-      <c r="H180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="7:8">
-      <c r="G181">
-        <v>71500000</v>
-      </c>
-      <c r="H181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="7:8">
-      <c r="G182">
-        <v>72000000</v>
-      </c>
-      <c r="H182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="7:8">
-      <c r="G183">
-        <v>72230000</v>
-      </c>
-      <c r="H183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="7:8">
-      <c r="G184">
-        <v>72800000</v>
-      </c>
-      <c r="H184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="7:8">
-      <c r="G185">
-        <v>73400000</v>
-      </c>
-      <c r="H185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="7:8">
-      <c r="G186">
-        <v>74550000</v>
-      </c>
-      <c r="H186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="7:8">
-      <c r="G187">
-        <v>74900000</v>
-      </c>
-      <c r="H187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="7:8">
-      <c r="G188">
-        <v>75000000</v>
-      </c>
-      <c r="H188">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="7:8">
-      <c r="G189">
-        <v>75600000</v>
-      </c>
-      <c r="H189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="7:8">
-      <c r="G190">
-        <v>76500000</v>
-      </c>
-      <c r="H190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="7:8">
-      <c r="G191">
-        <v>77000000</v>
-      </c>
-      <c r="H191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="7:8">
-      <c r="G192">
-        <v>78000000</v>
-      </c>
-      <c r="H192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="7:8">
-      <c r="G193">
-        <v>79000000</v>
-      </c>
-      <c r="H193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="7:8">
-      <c r="G194">
-        <v>79200000</v>
-      </c>
-      <c r="H194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="7:8">
-      <c r="G195">
-        <v>80000000</v>
-      </c>
-      <c r="H195">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="196" spans="7:8">
-      <c r="G196">
-        <v>80100000</v>
-      </c>
-      <c r="H196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="7:8">
-      <c r="G197">
-        <v>81000000</v>
-      </c>
-      <c r="H197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="7:8">
-      <c r="G198">
-        <v>81043200</v>
-      </c>
-      <c r="H198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="7:8">
-      <c r="G199">
-        <v>81380000</v>
-      </c>
-      <c r="H199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="7:8">
-      <c r="G200">
-        <v>81900000</v>
-      </c>
-      <c r="H200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="7:8">
-      <c r="G201">
-        <v>83200000</v>
-      </c>
-      <c r="H201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="7:8">
-      <c r="G202">
-        <v>84672000</v>
-      </c>
-      <c r="H202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="7:8">
-      <c r="G203">
-        <v>85000000</v>
-      </c>
-      <c r="H203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="7:8">
-      <c r="G204">
-        <v>85612800</v>
-      </c>
-      <c r="H204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="7:8">
-      <c r="G205">
-        <v>86000000</v>
-      </c>
-      <c r="H205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="7:8">
-      <c r="G206">
-        <v>87400000</v>
-      </c>
-      <c r="H206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="7:8">
-      <c r="G207">
-        <v>88000000</v>
-      </c>
-      <c r="H207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="7:8">
-      <c r="G208">
-        <v>88400000</v>
-      </c>
-      <c r="H208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="7:8">
-      <c r="G209">
-        <v>90000000</v>
-      </c>
-      <c r="H209">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="7:8">
-      <c r="G210">
-        <v>90900000</v>
-      </c>
-      <c r="H210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="7:8">
-      <c r="G211">
-        <v>91000000</v>
-      </c>
-      <c r="H211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="7:8">
-      <c r="G212">
-        <v>92500000</v>
-      </c>
-      <c r="H212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="7:8">
-      <c r="G213">
-        <v>93070000</v>
-      </c>
-      <c r="H213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="7:8">
-      <c r="G214">
-        <v>93100000</v>
-      </c>
-      <c r="H214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="7:8">
-      <c r="G215">
-        <v>94370000</v>
-      </c>
-      <c r="H215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="7:8">
-      <c r="G216">
-        <v>95000000</v>
-      </c>
-      <c r="H216">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="7:8">
-      <c r="G217">
-        <v>95550000</v>
-      </c>
-      <c r="H217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="7:8">
-      <c r="G218">
-        <v>98000000</v>
-      </c>
-      <c r="H218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="7:8">
-      <c r="G219">
-        <v>98290000</v>
-      </c>
-      <c r="H219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="7:8">
-      <c r="G220">
-        <v>98600000</v>
-      </c>
-      <c r="H220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="7:8">
-      <c r="G221">
-        <v>99900000</v>
-      </c>
-      <c r="H221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="7:8">
-      <c r="G222">
-        <v>100000000</v>
-      </c>
-      <c r="H222">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="223" spans="7:8">
-      <c r="G223">
-        <v>100800000</v>
-      </c>
-      <c r="H223">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="7:8">
-      <c r="G224">
-        <v>102000000</v>
-      </c>
-      <c r="H224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="7:8">
-      <c r="G225">
-        <v>103200000</v>
-      </c>
-      <c r="H225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="7:8">
-      <c r="G226">
-        <v>103650000</v>
-      </c>
-      <c r="H226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="7:8">
-      <c r="G227">
-        <v>105000000</v>
-      </c>
-      <c r="H227">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="7:8">
-      <c r="G228">
-        <v>107000000</v>
-      </c>
-      <c r="H228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="7:8">
-      <c r="G229">
-        <v>108000000</v>
-      </c>
-      <c r="H229">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="7:8">
-      <c r="G230">
-        <v>109000000</v>
-      </c>
-      <c r="H230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="7:8">
-      <c r="G231">
-        <v>110000000</v>
-      </c>
-      <c r="H231">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="7:8">
-      <c r="G232">
-        <v>112000000</v>
-      </c>
-      <c r="H232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="7:8">
-      <c r="G233">
-        <v>113000000</v>
-      </c>
-      <c r="H233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="7:8">
-      <c r="G234">
-        <v>115000000</v>
-      </c>
-      <c r="H234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="7:8">
-      <c r="G235">
-        <v>115200000</v>
-      </c>
-      <c r="H235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="7:8">
-      <c r="G236">
-        <v>118000000</v>
-      </c>
-      <c r="H236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="7:8">
-      <c r="G237">
-        <v>119000000</v>
-      </c>
-      <c r="H237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="7:8">
-      <c r="G238">
-        <v>120000000</v>
-      </c>
-      <c r="H238">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="7:8">
-      <c r="G239">
-        <v>122000000</v>
-      </c>
-      <c r="H239">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="7:8">
-      <c r="G240">
-        <v>123000000</v>
-      </c>
-      <c r="H240">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="7:8">
-      <c r="G241">
-        <v>125000000</v>
-      </c>
-      <c r="H241">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="7:8">
-      <c r="G242">
-        <v>126000000</v>
-      </c>
-      <c r="H242">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="7:8">
-      <c r="G243">
-        <v>127600000</v>
-      </c>
-      <c r="H243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="7:8">
-      <c r="G244">
-        <v>127680000</v>
-      </c>
-      <c r="H244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="7:8">
-      <c r="G245">
-        <v>130000000</v>
-      </c>
-      <c r="H245">
-        <v>3</v>
       </c>
     </row>
     <row r="246" spans="7:8">
       <c r="G246">
-        <v>130704000</v>
+        <v>1260000</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -87754,15 +87708,15 @@
     </row>
     <row r="247" spans="7:8">
       <c r="G247">
-        <v>132000000</v>
+        <v>2000000</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="7:8">
       <c r="G248">
-        <v>134000000</v>
+        <v>2350000</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -87770,15 +87724,15 @@
     </row>
     <row r="249" spans="7:8">
       <c r="G249">
-        <v>134400000</v>
+        <v>2450000</v>
       </c>
       <c r="H249">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="7:8">
       <c r="G250">
-        <v>136000000</v>
+        <v>3000000</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -87786,7 +87740,7 @@
     </row>
     <row r="251" spans="7:8">
       <c r="G251">
-        <v>136920000</v>
+        <v>3130000</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -87794,7 +87748,7 @@
     </row>
     <row r="252" spans="7:8">
       <c r="G252">
-        <v>137000000</v>
+        <v>4200000</v>
       </c>
       <c r="H252">
         <v>1</v>
@@ -87802,31 +87756,31 @@
     </row>
     <row r="253" spans="7:8">
       <c r="G253">
-        <v>141000000</v>
+        <v>4600000</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="7:8">
       <c r="G254">
-        <v>142000000</v>
+        <v>5000000</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="7:8">
       <c r="G255">
-        <v>144000000</v>
+        <v>5220000</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="7:8">
       <c r="G256">
-        <v>144400000</v>
+        <v>5250000</v>
       </c>
       <c r="H256">
         <v>1</v>
@@ -87834,7 +87788,7 @@
     </row>
     <row r="257" spans="7:8">
       <c r="G257">
-        <v>145000000</v>
+        <v>5700000</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -87842,7 +87796,7 @@
     </row>
     <row r="258" spans="7:8">
       <c r="G258">
-        <v>148000000</v>
+        <v>5850000</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -87850,15 +87804,15 @@
     </row>
     <row r="259" spans="7:8">
       <c r="G259">
-        <v>150000000</v>
+        <v>6720000</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="7:8">
       <c r="G260">
-        <v>152100000</v>
+        <v>6730000</v>
       </c>
       <c r="H260">
         <v>1</v>
@@ -87866,7 +87820,7 @@
     </row>
     <row r="261" spans="7:8">
       <c r="G261">
-        <v>155000000</v>
+        <v>8000000</v>
       </c>
       <c r="H261">
         <v>2</v>
@@ -87874,7 +87828,7 @@
     </row>
     <row r="262" spans="7:8">
       <c r="G262">
-        <v>156800000</v>
+        <v>8320000</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -87882,7 +87836,7 @@
     </row>
     <row r="263" spans="7:8">
       <c r="G263">
-        <v>158000000</v>
+        <v>8990000</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -87890,15 +87844,15 @@
     </row>
     <row r="264" spans="7:8">
       <c r="G264">
-        <v>160000000</v>
+        <v>9000000</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="7:8">
       <c r="G265">
-        <v>162000000</v>
+        <v>9490000</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -87906,7 +87860,7 @@
     </row>
     <row r="266" spans="7:8">
       <c r="G266">
-        <v>165000000</v>
+        <v>9960000</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -87914,15 +87868,15 @@
     </row>
     <row r="267" spans="7:8">
       <c r="G267">
-        <v>166000000</v>
+        <v>10000000</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="7:8">
       <c r="G268">
-        <v>167250000</v>
+        <v>10050000</v>
       </c>
       <c r="H268">
         <v>1</v>
@@ -87930,23 +87884,23 @@
     </row>
     <row r="269" spans="7:8">
       <c r="G269">
-        <v>168000000</v>
+        <v>10100000</v>
       </c>
       <c r="H269">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="7:8">
       <c r="G270">
-        <v>170000000</v>
+        <v>10320000</v>
       </c>
       <c r="H270">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="7:8">
       <c r="G271">
-        <v>173000000</v>
+        <v>10600000</v>
       </c>
       <c r="H271">
         <v>1</v>
@@ -87954,7 +87908,7 @@
     </row>
     <row r="272" spans="7:8">
       <c r="G272">
-        <v>175000000</v>
+        <v>10940000</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -87962,7 +87916,7 @@
     </row>
     <row r="273" spans="7:8">
       <c r="G273">
-        <v>177200000</v>
+        <v>11930000</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -87970,39 +87924,39 @@
     </row>
     <row r="274" spans="7:8">
       <c r="G274">
-        <v>178000000</v>
+        <v>12000000</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="7:8">
       <c r="G275">
-        <v>178360000</v>
+        <v>12300000</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="7:8">
       <c r="G276">
-        <v>180000000</v>
+        <v>12500000</v>
       </c>
       <c r="H276">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="7:8">
       <c r="G277">
-        <v>181200000</v>
+        <v>13000000</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="7:8">
       <c r="G278">
-        <v>181300000</v>
+        <v>13360000</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -88010,15 +87964,15 @@
     </row>
     <row r="279" spans="7:8">
       <c r="G279">
-        <v>181440000</v>
+        <v>13500000</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="7:8">
       <c r="G280">
-        <v>183000000</v>
+        <v>13750000</v>
       </c>
       <c r="H280">
         <v>1</v>
@@ -88026,15 +87980,15 @@
     </row>
     <row r="281" spans="7:8">
       <c r="G281">
-        <v>183200000</v>
+        <v>14000000</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="7:8">
       <c r="G282">
-        <v>184000000</v>
+        <v>14100000</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -88042,7 +87996,7 @@
     </row>
     <row r="283" spans="7:8">
       <c r="G283">
-        <v>185000000</v>
+        <v>14400000</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -88050,7 +88004,7 @@
     </row>
     <row r="284" spans="7:8">
       <c r="G284">
-        <v>186000000</v>
+        <v>14440000</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -88058,7 +88012,7 @@
     </row>
     <row r="285" spans="7:8">
       <c r="G285">
-        <v>187000000</v>
+        <v>14600000</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -88066,7 +88020,7 @@
     </row>
     <row r="286" spans="7:8">
       <c r="G286">
-        <v>190000000</v>
+        <v>14680000</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -88074,7 +88028,7 @@
     </row>
     <row r="287" spans="7:8">
       <c r="G287">
-        <v>193000000</v>
+        <v>15500000</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -88082,7 +88036,7 @@
     </row>
     <row r="288" spans="7:8">
       <c r="G288">
-        <v>194000000</v>
+        <v>16000000</v>
       </c>
       <c r="H288">
         <v>1</v>
@@ -88090,7 +88044,7 @@
     </row>
     <row r="289" spans="7:8">
       <c r="G289">
-        <v>195000000</v>
+        <v>16800000</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -88098,7 +88052,7 @@
     </row>
     <row r="290" spans="7:8">
       <c r="G290">
-        <v>195620000</v>
+        <v>17100000</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -88106,15 +88060,15 @@
     </row>
     <row r="291" spans="7:8">
       <c r="G291">
-        <v>198000000</v>
+        <v>17420000</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="7:8">
       <c r="G292">
-        <v>198200000</v>
+        <v>17890000</v>
       </c>
       <c r="H292">
         <v>1</v>
@@ -88122,23 +88076,23 @@
     </row>
     <row r="293" spans="7:8">
       <c r="G293">
-        <v>198900000</v>
+        <v>18000000</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="7:8">
       <c r="G294">
-        <v>200000000</v>
+        <v>18200000</v>
       </c>
       <c r="H294">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="7:8">
       <c r="G295">
-        <v>200160000</v>
+        <v>18800000</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -88146,7 +88100,7 @@
     </row>
     <row r="296" spans="7:8">
       <c r="G296">
-        <v>201000000</v>
+        <v>19000000</v>
       </c>
       <c r="H296">
         <v>1</v>
@@ -88154,7 +88108,7 @@
     </row>
     <row r="297" spans="7:8">
       <c r="G297">
-        <v>201600000</v>
+        <v>19370000</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -88162,7 +88116,7 @@
     </row>
     <row r="298" spans="7:8">
       <c r="G298">
-        <v>202900000</v>
+        <v>19700000</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -88170,15 +88124,15 @@
     </row>
     <row r="299" spans="7:8">
       <c r="G299">
-        <v>204000000</v>
+        <v>19710000</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="7:8">
       <c r="G300">
-        <v>206000000</v>
+        <v>19940000</v>
       </c>
       <c r="H300">
         <v>2</v>
@@ -88186,31 +88140,31 @@
     </row>
     <row r="301" spans="7:8">
       <c r="G301">
-        <v>207000000</v>
+        <v>20000000</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="7:8">
       <c r="G302">
-        <v>210000000</v>
+        <v>20160000</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="7:8">
       <c r="G303">
-        <v>210710000</v>
+        <v>22000000</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="7:8">
       <c r="G304">
-        <v>214000000</v>
+        <v>22100000</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -88218,7 +88172,7 @@
     </row>
     <row r="305" spans="7:8">
       <c r="G305">
-        <v>214060000</v>
+        <v>22320000</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -88226,7 +88180,7 @@
     </row>
     <row r="306" spans="7:8">
       <c r="G306">
-        <v>215000000</v>
+        <v>22390000</v>
       </c>
       <c r="H306">
         <v>1</v>
@@ -88234,7 +88188,7 @@
     </row>
     <row r="307" spans="7:8">
       <c r="G307">
-        <v>216000000</v>
+        <v>22750000</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -88242,23 +88196,23 @@
     </row>
     <row r="308" spans="7:8">
       <c r="G308">
-        <v>219000000</v>
+        <v>24000000</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="7:8">
       <c r="G309">
-        <v>220000000</v>
+        <v>24500000</v>
       </c>
       <c r="H309">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="7:8">
       <c r="G310">
-        <v>220500000</v>
+        <v>25900000</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -88266,15 +88220,15 @@
     </row>
     <row r="311" spans="7:8">
       <c r="G311">
-        <v>222600000</v>
+        <v>26000000</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="7:8">
       <c r="G312">
-        <v>223000000</v>
+        <v>27000000</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -88282,7 +88236,7 @@
     </row>
     <row r="313" spans="7:8">
       <c r="G313">
-        <v>224640000</v>
+        <v>27300000</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -88290,71 +88244,71 @@
     </row>
     <row r="314" spans="7:8">
       <c r="G314">
-        <v>226000000</v>
+        <v>27500000</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="7:8">
       <c r="G315">
-        <v>227000000</v>
+        <v>30400000</v>
       </c>
       <c r="H315">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="7:8">
       <c r="G316">
-        <v>228000000</v>
+        <v>31000000</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="7:8">
       <c r="G317">
-        <v>229000000</v>
+        <v>31200000</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="7:8">
       <c r="G318">
-        <v>235000000</v>
+        <v>31651200</v>
       </c>
       <c r="H318">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="7:8">
       <c r="G319">
-        <v>236640000</v>
+        <v>32500000</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="7:8">
       <c r="G320">
-        <v>237500000</v>
+        <v>32590000</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="7:8">
       <c r="G321">
-        <v>239000000</v>
+        <v>33000000</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="7:8">
       <c r="G322">
-        <v>240000000</v>
+        <v>33200000</v>
       </c>
       <c r="H322">
         <v>1</v>
@@ -88362,15 +88316,15 @@
     </row>
     <row r="323" spans="7:8">
       <c r="G323">
-        <v>244000000</v>
+        <v>35000000</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="7:8">
       <c r="G324">
-        <v>244800000</v>
+        <v>35360000</v>
       </c>
       <c r="H324">
         <v>1</v>
@@ -88378,15 +88332,15 @@
     </row>
     <row r="325" spans="7:8">
       <c r="G325">
-        <v>246000000</v>
+        <v>36200000</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="7:8">
       <c r="G326">
-        <v>248970000</v>
+        <v>36570000</v>
       </c>
       <c r="H326">
         <v>1</v>
@@ -88394,7 +88348,7 @@
     </row>
     <row r="327" spans="7:8">
       <c r="G327">
-        <v>249600000</v>
+        <v>39420000</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -88402,7 +88356,7 @@
     </row>
     <row r="328" spans="7:8">
       <c r="G328">
-        <v>252000000</v>
+        <v>39600000</v>
       </c>
       <c r="H328">
         <v>1</v>
@@ -88410,15 +88364,15 @@
     </row>
     <row r="329" spans="7:8">
       <c r="G329">
-        <v>252710000</v>
+        <v>42000000</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="7:8">
       <c r="G330">
-        <v>253750000</v>
+        <v>42100000</v>
       </c>
       <c r="H330">
         <v>1</v>
@@ -88426,7 +88380,7 @@
     </row>
     <row r="331" spans="7:8">
       <c r="G331">
-        <v>254000000</v>
+        <v>42500000</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -88434,7 +88388,7 @@
     </row>
     <row r="332" spans="7:8">
       <c r="G332">
-        <v>255000000</v>
+        <v>43000000</v>
       </c>
       <c r="H332">
         <v>2</v>
@@ -88442,7 +88396,7 @@
     </row>
     <row r="333" spans="7:8">
       <c r="G333">
-        <v>256500000</v>
+        <v>45740000</v>
       </c>
       <c r="H333">
         <v>1</v>
@@ -88450,15 +88404,15 @@
     </row>
     <row r="334" spans="7:8">
       <c r="G334">
-        <v>257000000</v>
+        <v>46400000</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="7:8">
       <c r="G335">
-        <v>258000000</v>
+        <v>47000000</v>
       </c>
       <c r="H335">
         <v>1</v>
@@ -88466,23 +88420,23 @@
     </row>
     <row r="336" spans="7:8">
       <c r="G336">
-        <v>259000000</v>
+        <v>48000000</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="7:8">
       <c r="G337">
-        <v>260000000</v>
+        <v>48800000</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="7:8">
       <c r="G338">
-        <v>261000000</v>
+        <v>49900000</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -88490,7 +88444,7 @@
     </row>
     <row r="339" spans="7:8">
       <c r="G339">
-        <v>261460000</v>
+        <v>49970000</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -88498,7 +88452,7 @@
     </row>
     <row r="340" spans="7:8">
       <c r="G340">
-        <v>263200000</v>
+        <v>49990000</v>
       </c>
       <c r="H340">
         <v>1</v>
@@ -88506,7 +88460,7 @@
     </row>
     <row r="341" spans="7:8">
       <c r="G341">
-        <v>265000000</v>
+        <v>50100000</v>
       </c>
       <c r="H341">
         <v>1</v>
@@ -88514,7 +88468,7 @@
     </row>
     <row r="342" spans="7:8">
       <c r="G342">
-        <v>267000000</v>
+        <v>50700000</v>
       </c>
       <c r="H342">
         <v>1</v>
@@ -88522,7 +88476,7 @@
     </row>
     <row r="343" spans="7:8">
       <c r="G343">
-        <v>268100000</v>
+        <v>51050000</v>
       </c>
       <c r="H343">
         <v>1</v>
@@ -88530,15 +88484,15 @@
     </row>
     <row r="344" spans="7:8">
       <c r="G344">
-        <v>270000000</v>
+        <v>51072000</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="7:8">
       <c r="G345">
-        <v>272000000</v>
+        <v>52000000</v>
       </c>
       <c r="H345">
         <v>2</v>
@@ -88546,7 +88500,7 @@
     </row>
     <row r="346" spans="7:8">
       <c r="G346">
-        <v>274050000</v>
+        <v>53600000</v>
       </c>
       <c r="H346">
         <v>1</v>
@@ -88554,7 +88508,7 @@
     </row>
     <row r="347" spans="7:8">
       <c r="G347">
-        <v>276000000</v>
+        <v>54000000</v>
       </c>
       <c r="H347">
         <v>2</v>
@@ -88562,7 +88516,7 @@
     </row>
     <row r="348" spans="7:8">
       <c r="G348">
-        <v>276020000</v>
+        <v>54120000</v>
       </c>
       <c r="H348">
         <v>1</v>
@@ -88570,31 +88524,31 @@
     </row>
     <row r="349" spans="7:8">
       <c r="G349">
-        <v>280000000</v>
+        <v>59170000</v>
       </c>
       <c r="H349">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="7:8">
       <c r="G350">
-        <v>281000000</v>
+        <v>59800000</v>
       </c>
       <c r="H350">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="7:8">
       <c r="G351">
-        <v>282000000</v>
+        <v>60000000</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="7:8">
       <c r="G352">
-        <v>284000000</v>
+        <v>60300000</v>
       </c>
       <c r="H352">
         <v>1</v>
@@ -88602,7 +88556,7 @@
     </row>
     <row r="353" spans="7:8">
       <c r="G353">
-        <v>287000000</v>
+        <v>60400000</v>
       </c>
       <c r="H353">
         <v>1</v>
@@ -88610,23 +88564,23 @@
     </row>
     <row r="354" spans="7:8">
       <c r="G354">
-        <v>288000000</v>
+        <v>60550000</v>
       </c>
       <c r="H354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="7:8">
       <c r="G355">
-        <v>290000000</v>
+        <v>62300000</v>
       </c>
       <c r="H355">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="7:8">
       <c r="G356">
-        <v>292000000</v>
+        <v>62880000</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -88634,7 +88588,7 @@
     </row>
     <row r="357" spans="7:8">
       <c r="G357">
-        <v>293000000</v>
+        <v>63530000</v>
       </c>
       <c r="H357">
         <v>1</v>
@@ -88642,7 +88596,7 @@
     </row>
     <row r="358" spans="7:8">
       <c r="G358">
-        <v>293460000</v>
+        <v>63600000</v>
       </c>
       <c r="H358">
         <v>1</v>
@@ -88650,7 +88604,7 @@
     </row>
     <row r="359" spans="7:8">
       <c r="G359">
-        <v>296000000</v>
+        <v>64000000</v>
       </c>
       <c r="H359">
         <v>1</v>
@@ -88658,7 +88612,7 @@
     </row>
     <row r="360" spans="7:8">
       <c r="G360">
-        <v>296800000</v>
+        <v>64800000</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -88666,7 +88620,7 @@
     </row>
     <row r="361" spans="7:8">
       <c r="G361">
-        <v>297000000</v>
+        <v>64900000</v>
       </c>
       <c r="H361">
         <v>1</v>
@@ -88674,15 +88628,15 @@
     </row>
     <row r="362" spans="7:8">
       <c r="G362">
-        <v>298000000</v>
+        <v>65000000</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363" spans="7:8">
       <c r="G363">
-        <v>299700000</v>
+        <v>66200000</v>
       </c>
       <c r="H363">
         <v>1</v>
@@ -88690,15 +88644,15 @@
     </row>
     <row r="364" spans="7:8">
       <c r="G364">
-        <v>300000000</v>
+        <v>66400000</v>
       </c>
       <c r="H364">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="7:8">
       <c r="G365">
-        <v>300500000</v>
+        <v>67000000</v>
       </c>
       <c r="H365">
         <v>1</v>
@@ -88706,7 +88660,7 @@
     </row>
     <row r="366" spans="7:8">
       <c r="G366">
-        <v>301000000</v>
+        <v>67190000</v>
       </c>
       <c r="H366">
         <v>1</v>
@@ -88714,7 +88668,7 @@
     </row>
     <row r="367" spans="7:8">
       <c r="G367">
-        <v>303000000</v>
+        <v>67200000</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -88722,7 +88676,7 @@
     </row>
     <row r="368" spans="7:8">
       <c r="G368">
-        <v>307000000</v>
+        <v>68800000</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -88730,7 +88684,7 @@
     </row>
     <row r="369" spans="7:8">
       <c r="G369">
-        <v>307200000</v>
+        <v>68970000</v>
       </c>
       <c r="H369">
         <v>1</v>
@@ -88738,15 +88692,15 @@
     </row>
     <row r="370" spans="7:8">
       <c r="G370">
-        <v>310000000</v>
+        <v>72230000</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="7:8">
       <c r="G371">
-        <v>311000000</v>
+        <v>72800000</v>
       </c>
       <c r="H371">
         <v>1</v>
@@ -88754,15 +88708,15 @@
     </row>
     <row r="372" spans="7:8">
       <c r="G372">
-        <v>312000000</v>
+        <v>73400000</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="7:8">
       <c r="G373">
-        <v>319000000</v>
+        <v>74550000</v>
       </c>
       <c r="H373">
         <v>1</v>
@@ -88770,15 +88724,15 @@
     </row>
     <row r="374" spans="7:8">
       <c r="G374">
-        <v>320000000</v>
+        <v>74900000</v>
       </c>
       <c r="H374">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="7:8">
       <c r="G375">
-        <v>321600000</v>
+        <v>75600000</v>
       </c>
       <c r="H375">
         <v>1</v>
@@ -88786,7 +88740,7 @@
     </row>
     <row r="376" spans="7:8">
       <c r="G376">
-        <v>322000000</v>
+        <v>76500000</v>
       </c>
       <c r="H376">
         <v>1</v>
@@ -88794,15 +88748,15 @@
     </row>
     <row r="377" spans="7:8">
       <c r="G377">
-        <v>323000000</v>
+        <v>78000000</v>
       </c>
       <c r="H377">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="7:8">
       <c r="G378">
-        <v>325000000</v>
+        <v>79200000</v>
       </c>
       <c r="H378">
         <v>1</v>
@@ -88810,7 +88764,7 @@
     </row>
     <row r="379" spans="7:8">
       <c r="G379">
-        <v>328000000</v>
+        <v>80100000</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -88818,15 +88772,15 @@
     </row>
     <row r="380" spans="7:8">
       <c r="G380">
-        <v>330000000</v>
+        <v>81000000</v>
       </c>
       <c r="H380">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="7:8">
       <c r="G381">
-        <v>331000000</v>
+        <v>81043200</v>
       </c>
       <c r="H381">
         <v>1</v>
@@ -88834,15 +88788,15 @@
     </row>
     <row r="382" spans="7:8">
       <c r="G382">
-        <v>332000000</v>
+        <v>81380000</v>
       </c>
       <c r="H382">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="7:8">
       <c r="G383">
-        <v>332730000</v>
+        <v>83200000</v>
       </c>
       <c r="H383">
         <v>1</v>
@@ -88850,7 +88804,7 @@
     </row>
     <row r="384" spans="7:8">
       <c r="G384">
-        <v>333000000</v>
+        <v>84672000</v>
       </c>
       <c r="H384">
         <v>1</v>
@@ -88858,7 +88812,7 @@
     </row>
     <row r="385" spans="7:8">
       <c r="G385">
-        <v>335000000</v>
+        <v>85612800</v>
       </c>
       <c r="H385">
         <v>1</v>
@@ -88866,15 +88820,15 @@
     </row>
     <row r="386" spans="7:8">
       <c r="G386">
-        <v>336000000</v>
+        <v>86000000</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="7:8">
       <c r="G387">
-        <v>337000000</v>
+        <v>87400000</v>
       </c>
       <c r="H387">
         <v>1</v>
@@ -88882,7 +88836,7 @@
     </row>
     <row r="388" spans="7:8">
       <c r="G388">
-        <v>338000000</v>
+        <v>88000000</v>
       </c>
       <c r="H388">
         <v>1</v>
@@ -88890,23 +88844,23 @@
     </row>
     <row r="389" spans="7:8">
       <c r="G389">
-        <v>340000000</v>
+        <v>88400000</v>
       </c>
       <c r="H389">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="7:8">
       <c r="G390">
-        <v>343000000</v>
+        <v>91000000</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="7:8">
       <c r="G391">
-        <v>345000000</v>
+        <v>92500000</v>
       </c>
       <c r="H391">
         <v>1</v>
@@ -88914,7 +88868,7 @@
     </row>
     <row r="392" spans="7:8">
       <c r="G392">
-        <v>346590000</v>
+        <v>93100000</v>
       </c>
       <c r="H392">
         <v>1</v>
@@ -88922,15 +88876,15 @@
     </row>
     <row r="393" spans="7:8">
       <c r="G393">
-        <v>349000000</v>
+        <v>95000000</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="7:8">
       <c r="G394">
-        <v>352000000</v>
+        <v>95550000</v>
       </c>
       <c r="H394">
         <v>1</v>
@@ -88938,7 +88892,7 @@
     </row>
     <row r="395" spans="7:8">
       <c r="G395">
-        <v>353000000</v>
+        <v>98290000</v>
       </c>
       <c r="H395">
         <v>1</v>
@@ -88946,7 +88900,7 @@
     </row>
     <row r="396" spans="7:8">
       <c r="G396">
-        <v>354000000</v>
+        <v>98600000</v>
       </c>
       <c r="H396">
         <v>1</v>
@@ -88954,7 +88908,7 @@
     </row>
     <row r="397" spans="7:8">
       <c r="G397">
-        <v>356550000</v>
+        <v>99900000</v>
       </c>
       <c r="H397">
         <v>1</v>
@@ -88962,7 +88916,7 @@
     </row>
     <row r="398" spans="7:8">
       <c r="G398">
-        <v>357000000</v>
+        <v>102000000</v>
       </c>
       <c r="H398">
         <v>1</v>
@@ -88970,7 +88924,7 @@
     </row>
     <row r="399" spans="7:8">
       <c r="G399">
-        <v>363000000</v>
+        <v>103200000</v>
       </c>
       <c r="H399">
         <v>1</v>
@@ -88978,7 +88932,7 @@
     </row>
     <row r="400" spans="7:8">
       <c r="G400">
-        <v>364000000</v>
+        <v>103650000</v>
       </c>
       <c r="H400">
         <v>1</v>
@@ -88986,7 +88940,7 @@
     </row>
     <row r="401" spans="7:8">
       <c r="G401">
-        <v>365000000</v>
+        <v>105000000</v>
       </c>
       <c r="H401">
         <v>3</v>
@@ -88994,23 +88948,23 @@
     </row>
     <row r="402" spans="7:8">
       <c r="G402">
-        <v>367200000</v>
+        <v>108000000</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="7:8">
       <c r="G403">
-        <v>368000000</v>
+        <v>110000000</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="7:8">
       <c r="G404">
-        <v>369000000</v>
+        <v>113000000</v>
       </c>
       <c r="H404">
         <v>1</v>
@@ -89018,7 +88972,7 @@
     </row>
     <row r="405" spans="7:8">
       <c r="G405">
-        <v>369600000</v>
+        <v>115000000</v>
       </c>
       <c r="H405">
         <v>1</v>
@@ -89026,15 +88980,15 @@
     </row>
     <row r="406" spans="7:8">
       <c r="G406">
-        <v>370000000</v>
+        <v>115200000</v>
       </c>
       <c r="H406">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="7:8">
       <c r="G407">
-        <v>375480000</v>
+        <v>118000000</v>
       </c>
       <c r="H407">
         <v>1</v>
@@ -89042,15 +88996,15 @@
     </row>
     <row r="408" spans="7:8">
       <c r="G408">
-        <v>377000000</v>
+        <v>126000000</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="7:8">
       <c r="G409">
-        <v>379500000</v>
+        <v>127600000</v>
       </c>
       <c r="H409">
         <v>1</v>
@@ -89058,15 +89012,15 @@
     </row>
     <row r="410" spans="7:8">
       <c r="G410">
-        <v>380000000</v>
+        <v>130000000</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411" spans="7:8">
       <c r="G411">
-        <v>384000000</v>
+        <v>130704000</v>
       </c>
       <c r="H411">
         <v>1</v>
@@ -89074,7 +89028,7 @@
     </row>
     <row r="412" spans="7:8">
       <c r="G412">
-        <v>385000000</v>
+        <v>132000000</v>
       </c>
       <c r="H412">
         <v>1</v>
@@ -89082,7 +89036,7 @@
     </row>
     <row r="413" spans="7:8">
       <c r="G413">
-        <v>386000000</v>
+        <v>134000000</v>
       </c>
       <c r="H413">
         <v>1</v>
@@ -89090,15 +89044,15 @@
     </row>
     <row r="414" spans="7:8">
       <c r="G414">
-        <v>388000000</v>
+        <v>134400000</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415" spans="7:8">
       <c r="G415">
-        <v>399000000</v>
+        <v>136920000</v>
       </c>
       <c r="H415">
         <v>1</v>
@@ -89106,23 +89060,23 @@
     </row>
     <row r="416" spans="7:8">
       <c r="G416">
-        <v>400000000</v>
+        <v>141000000</v>
       </c>
       <c r="H416">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="7:8">
       <c r="G417">
-        <v>400750000</v>
+        <v>144000000</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="7:8">
       <c r="G418">
-        <v>401200000</v>
+        <v>144400000</v>
       </c>
       <c r="H418">
         <v>1</v>
@@ -89130,7 +89084,7 @@
     </row>
     <row r="419" spans="7:8">
       <c r="G419">
-        <v>405000000</v>
+        <v>148000000</v>
       </c>
       <c r="H419">
         <v>1</v>
@@ -89138,7 +89092,7 @@
     </row>
     <row r="420" spans="7:8">
       <c r="G420">
-        <v>407000000</v>
+        <v>152100000</v>
       </c>
       <c r="H420">
         <v>1</v>
@@ -89146,15 +89100,15 @@
     </row>
     <row r="421" spans="7:8">
       <c r="G421">
-        <v>408000000</v>
+        <v>155000000</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="7:8">
       <c r="G422">
-        <v>410000000</v>
+        <v>156800000</v>
       </c>
       <c r="H422">
         <v>1</v>
@@ -89162,7 +89116,7 @@
     </row>
     <row r="423" spans="7:8">
       <c r="G423">
-        <v>411000000</v>
+        <v>158000000</v>
       </c>
       <c r="H423">
         <v>1</v>
@@ -89170,23 +89124,23 @@
     </row>
     <row r="424" spans="7:8">
       <c r="G424">
-        <v>412000000</v>
+        <v>160000000</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="7:8">
       <c r="G425">
-        <v>413000000</v>
+        <v>162000000</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="7:8">
       <c r="G426">
-        <v>413950000</v>
+        <v>165000000</v>
       </c>
       <c r="H426">
         <v>1</v>
@@ -89194,7 +89148,7 @@
     </row>
     <row r="427" spans="7:8">
       <c r="G427">
-        <v>415600000</v>
+        <v>166000000</v>
       </c>
       <c r="H427">
         <v>1</v>
@@ -89202,7 +89156,7 @@
     </row>
     <row r="428" spans="7:8">
       <c r="G428">
-        <v>418000000</v>
+        <v>167250000</v>
       </c>
       <c r="H428">
         <v>1</v>
@@ -89210,23 +89164,23 @@
     </row>
     <row r="429" spans="7:8">
       <c r="G429">
-        <v>419000000</v>
+        <v>168000000</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="7:8">
       <c r="G430">
-        <v>421000000</v>
+        <v>170000000</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="431" spans="7:8">
       <c r="G431">
-        <v>421800000</v>
+        <v>173000000</v>
       </c>
       <c r="H431">
         <v>1</v>
@@ -89234,39 +89188,39 @@
     </row>
     <row r="432" spans="7:8">
       <c r="G432">
-        <v>423360000</v>
+        <v>178000000</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="7:8">
       <c r="G433">
-        <v>425000000</v>
+        <v>178360000</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="7:8">
       <c r="G434">
-        <v>429000000</v>
+        <v>181300000</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="7:8">
       <c r="G435">
-        <v>434000000</v>
+        <v>181440000</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="7:8">
       <c r="G436">
-        <v>435000000</v>
+        <v>183000000</v>
       </c>
       <c r="H436">
         <v>1</v>
@@ -89274,15 +89228,15 @@
     </row>
     <row r="437" spans="7:8">
       <c r="G437">
-        <v>436000000</v>
+        <v>183200000</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="7:8">
       <c r="G438">
-        <v>437000000</v>
+        <v>184000000</v>
       </c>
       <c r="H438">
         <v>1</v>
@@ -89290,7 +89244,7 @@
     </row>
     <row r="439" spans="7:8">
       <c r="G439">
-        <v>438600000</v>
+        <v>186000000</v>
       </c>
       <c r="H439">
         <v>1</v>
@@ -89298,7 +89252,7 @@
     </row>
     <row r="440" spans="7:8">
       <c r="G440">
-        <v>442650000</v>
+        <v>187000000</v>
       </c>
       <c r="H440">
         <v>1</v>
@@ -89306,7 +89260,7 @@
     </row>
     <row r="441" spans="7:8">
       <c r="G441">
-        <v>443580000</v>
+        <v>193000000</v>
       </c>
       <c r="H441">
         <v>1</v>
@@ -89314,7 +89268,7 @@
     </row>
     <row r="442" spans="7:8">
       <c r="G442">
-        <v>445000000</v>
+        <v>194000000</v>
       </c>
       <c r="H442">
         <v>1</v>
@@ -89322,7 +89276,7 @@
     </row>
     <row r="443" spans="7:8">
       <c r="G443">
-        <v>446810000</v>
+        <v>195000000</v>
       </c>
       <c r="H443">
         <v>1</v>
@@ -89330,7 +89284,7 @@
     </row>
     <row r="444" spans="7:8">
       <c r="G444">
-        <v>448000000</v>
+        <v>195620000</v>
       </c>
       <c r="H444">
         <v>1</v>
@@ -89338,7 +89292,7 @@
     </row>
     <row r="445" spans="7:8">
       <c r="G445">
-        <v>449000000</v>
+        <v>198200000</v>
       </c>
       <c r="H445">
         <v>1</v>
@@ -89346,7 +89300,7 @@
     </row>
     <row r="446" spans="7:8">
       <c r="G446">
-        <v>449100000</v>
+        <v>200160000</v>
       </c>
       <c r="H446">
         <v>1</v>
@@ -89354,23 +89308,23 @@
     </row>
     <row r="447" spans="7:8">
       <c r="G447">
-        <v>450000000</v>
+        <v>204000000</v>
       </c>
       <c r="H447">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="7:8">
       <c r="G448">
-        <v>454850000</v>
+        <v>206000000</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="7:8">
       <c r="G449">
-        <v>457000000</v>
+        <v>207000000</v>
       </c>
       <c r="H449">
         <v>1</v>
@@ -89378,15 +89332,15 @@
     </row>
     <row r="450" spans="7:8">
       <c r="G450">
-        <v>458000000</v>
+        <v>210000000</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="7:8">
       <c r="G451">
-        <v>459000000</v>
+        <v>210710000</v>
       </c>
       <c r="H451">
         <v>1</v>
@@ -89394,7 +89348,7 @@
     </row>
     <row r="452" spans="7:8">
       <c r="G452">
-        <v>460000000</v>
+        <v>214000000</v>
       </c>
       <c r="H452">
         <v>1</v>
@@ -89402,7 +89356,7 @@
     </row>
     <row r="453" spans="7:8">
       <c r="G453">
-        <v>462000000</v>
+        <v>215000000</v>
       </c>
       <c r="H453">
         <v>1</v>
@@ -89410,7 +89364,7 @@
     </row>
     <row r="454" spans="7:8">
       <c r="G454">
-        <v>462500000</v>
+        <v>216000000</v>
       </c>
       <c r="H454">
         <v>1</v>
@@ -89418,7 +89372,7 @@
     </row>
     <row r="455" spans="7:8">
       <c r="G455">
-        <v>467660000</v>
+        <v>219000000</v>
       </c>
       <c r="H455">
         <v>1</v>
@@ -89426,7 +89380,7 @@
     </row>
     <row r="456" spans="7:8">
       <c r="G456">
-        <v>468000000</v>
+        <v>220500000</v>
       </c>
       <c r="H456">
         <v>1</v>
@@ -89434,7 +89388,7 @@
     </row>
     <row r="457" spans="7:8">
       <c r="G457">
-        <v>470000000</v>
+        <v>222600000</v>
       </c>
       <c r="H457">
         <v>2</v>
@@ -89442,7 +89396,7 @@
     </row>
     <row r="458" spans="7:8">
       <c r="G458">
-        <v>470400000</v>
+        <v>223000000</v>
       </c>
       <c r="H458">
         <v>1</v>
@@ -89450,23 +89404,23 @@
     </row>
     <row r="459" spans="7:8">
       <c r="G459">
-        <v>473000000</v>
+        <v>224640000</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="7:8">
       <c r="G460">
-        <v>474460000</v>
+        <v>226000000</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="7:8">
       <c r="G461">
-        <v>475000000</v>
+        <v>228000000</v>
       </c>
       <c r="H461">
         <v>1</v>
@@ -89474,15 +89428,15 @@
     </row>
     <row r="462" spans="7:8">
       <c r="G462">
-        <v>476000000</v>
+        <v>236640000</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="7:8">
       <c r="G463">
-        <v>477000000</v>
+        <v>237500000</v>
       </c>
       <c r="H463">
         <v>1</v>
@@ -89490,7 +89444,7 @@
     </row>
     <row r="464" spans="7:8">
       <c r="G464">
-        <v>478000000</v>
+        <v>239000000</v>
       </c>
       <c r="H464">
         <v>1</v>
@@ -89498,7 +89452,7 @@
     </row>
     <row r="465" spans="7:8">
       <c r="G465">
-        <v>480000000</v>
+        <v>244800000</v>
       </c>
       <c r="H465">
         <v>1</v>
@@ -89506,15 +89460,15 @@
     </row>
     <row r="466" spans="7:8">
       <c r="G466">
-        <v>481000000</v>
+        <v>246000000</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="7:8">
       <c r="G467">
-        <v>483000000</v>
+        <v>248970000</v>
       </c>
       <c r="H467">
         <v>1</v>
@@ -89522,15 +89476,15 @@
     </row>
     <row r="468" spans="7:8">
       <c r="G468">
-        <v>484000000</v>
+        <v>249600000</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="7:8">
       <c r="G469">
-        <v>485000000</v>
+        <v>252000000</v>
       </c>
       <c r="H469">
         <v>1</v>
@@ -89538,7 +89492,7 @@
     </row>
     <row r="470" spans="7:8">
       <c r="G470">
-        <v>486000000</v>
+        <v>252710000</v>
       </c>
       <c r="H470">
         <v>1</v>
@@ -89546,7 +89500,7 @@
     </row>
     <row r="471" spans="7:8">
       <c r="G471">
-        <v>488000000</v>
+        <v>253750000</v>
       </c>
       <c r="H471">
         <v>1</v>
@@ -89554,7 +89508,7 @@
     </row>
     <row r="472" spans="7:8">
       <c r="G472">
-        <v>492280000</v>
+        <v>254000000</v>
       </c>
       <c r="H472">
         <v>1</v>
@@ -89562,7 +89516,7 @@
     </row>
     <row r="473" spans="7:8">
       <c r="G473">
-        <v>493000000</v>
+        <v>256500000</v>
       </c>
       <c r="H473">
         <v>1</v>
@@ -89570,15 +89524,15 @@
     </row>
     <row r="474" spans="7:8">
       <c r="G474">
-        <v>494000000</v>
+        <v>257000000</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="7:8">
       <c r="G475">
-        <v>495040000</v>
+        <v>258000000</v>
       </c>
       <c r="H475">
         <v>1</v>
@@ -89586,23 +89540,23 @@
     </row>
     <row r="476" spans="7:8">
       <c r="G476">
-        <v>500000000</v>
+        <v>259000000</v>
       </c>
       <c r="H476">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="7:8">
       <c r="G477">
-        <v>505000000</v>
+        <v>260000000</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="7:8">
       <c r="G478">
-        <v>510000000</v>
+        <v>261000000</v>
       </c>
       <c r="H478">
         <v>1</v>
@@ -89610,15 +89564,15 @@
     </row>
     <row r="479" spans="7:8">
       <c r="G479">
-        <v>518000000</v>
+        <v>261460000</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="7:8">
       <c r="G480">
-        <v>524000000</v>
+        <v>263200000</v>
       </c>
       <c r="H480">
         <v>1</v>
@@ -89626,7 +89580,7 @@
     </row>
     <row r="481" spans="7:8">
       <c r="G481">
-        <v>526000000</v>
+        <v>267000000</v>
       </c>
       <c r="H481">
         <v>1</v>
@@ -89634,15 +89588,15 @@
     </row>
     <row r="482" spans="7:8">
       <c r="G482">
-        <v>527000000</v>
+        <v>270000000</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="7:8">
       <c r="G483">
-        <v>528000000</v>
+        <v>274050000</v>
       </c>
       <c r="H483">
         <v>1</v>
@@ -89650,23 +89604,23 @@
     </row>
     <row r="484" spans="7:8">
       <c r="G484">
-        <v>529000000</v>
+        <v>276000000</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="7:8">
       <c r="G485">
-        <v>530000000</v>
+        <v>281000000</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="7:8">
       <c r="G486">
-        <v>541000000</v>
+        <v>284000000</v>
       </c>
       <c r="H486">
         <v>1</v>
@@ -89674,7 +89628,7 @@
     </row>
     <row r="487" spans="7:8">
       <c r="G487">
-        <v>541380000</v>
+        <v>287000000</v>
       </c>
       <c r="H487">
         <v>1</v>
@@ -89682,15 +89636,15 @@
     </row>
     <row r="488" spans="7:8">
       <c r="G488">
-        <v>543000000</v>
+        <v>288000000</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="7:8">
       <c r="G489">
-        <v>551000000</v>
+        <v>293000000</v>
       </c>
       <c r="H489">
         <v>1</v>
@@ -89698,7 +89652,7 @@
     </row>
     <row r="490" spans="7:8">
       <c r="G490">
-        <v>552000000</v>
+        <v>296000000</v>
       </c>
       <c r="H490">
         <v>1</v>
@@ -89706,7 +89660,7 @@
     </row>
     <row r="491" spans="7:8">
       <c r="G491">
-        <v>558000000</v>
+        <v>297000000</v>
       </c>
       <c r="H491">
         <v>1</v>
@@ -89714,15 +89668,15 @@
     </row>
     <row r="492" spans="7:8">
       <c r="G492">
-        <v>560000000</v>
+        <v>299700000</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="7:8">
       <c r="G493">
-        <v>562000000</v>
+        <v>301000000</v>
       </c>
       <c r="H493">
         <v>1</v>
@@ -89730,7 +89684,7 @@
     </row>
     <row r="494" spans="7:8">
       <c r="G494">
-        <v>563000000</v>
+        <v>307000000</v>
       </c>
       <c r="H494">
         <v>1</v>
@@ -89738,15 +89692,15 @@
     </row>
     <row r="495" spans="7:8">
       <c r="G495">
-        <v>565000000</v>
+        <v>307200000</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="7:8">
       <c r="G496">
-        <v>570000000</v>
+        <v>310000000</v>
       </c>
       <c r="H496">
         <v>2</v>
@@ -89754,7 +89708,7 @@
     </row>
     <row r="497" spans="7:8">
       <c r="G497">
-        <v>579200000</v>
+        <v>311000000</v>
       </c>
       <c r="H497">
         <v>1</v>
@@ -89762,7 +89716,7 @@
     </row>
     <row r="498" spans="7:8">
       <c r="G498">
-        <v>580000000</v>
+        <v>312000000</v>
       </c>
       <c r="H498">
         <v>2</v>
@@ -89770,15 +89724,15 @@
     </row>
     <row r="499" spans="7:8">
       <c r="G499">
-        <v>586000000</v>
+        <v>320000000</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="500" spans="7:8">
       <c r="G500">
-        <v>590000000</v>
+        <v>321600000</v>
       </c>
       <c r="H500">
         <v>1</v>
@@ -89786,39 +89740,39 @@
     </row>
     <row r="501" spans="7:8">
       <c r="G501">
-        <v>600000000</v>
+        <v>322000000</v>
       </c>
       <c r="H501">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="7:8">
       <c r="G502">
-        <v>608000000</v>
+        <v>323000000</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="7:8">
       <c r="G503">
-        <v>610000000</v>
+        <v>330000000</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="7:8">
       <c r="G504">
-        <v>612000000</v>
+        <v>332000000</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="7:8">
       <c r="G505">
-        <v>614000000</v>
+        <v>332730000</v>
       </c>
       <c r="H505">
         <v>1</v>
@@ -89826,7 +89780,7 @@
     </row>
     <row r="506" spans="7:8">
       <c r="G506">
-        <v>614350000</v>
+        <v>333000000</v>
       </c>
       <c r="H506">
         <v>1</v>
@@ -89834,7 +89788,7 @@
     </row>
     <row r="507" spans="7:8">
       <c r="G507">
-        <v>616000000</v>
+        <v>335000000</v>
       </c>
       <c r="H507">
         <v>1</v>
@@ -89842,15 +89796,15 @@
     </row>
     <row r="508" spans="7:8">
       <c r="G508">
-        <v>617000000</v>
+        <v>336000000</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="7:8">
       <c r="G509">
-        <v>618000000</v>
+        <v>338000000</v>
       </c>
       <c r="H509">
         <v>1</v>
@@ -89858,15 +89812,15 @@
     </row>
     <row r="510" spans="7:8">
       <c r="G510">
-        <v>619000000</v>
+        <v>340000000</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511" spans="7:8">
       <c r="G511">
-        <v>620000000</v>
+        <v>345000000</v>
       </c>
       <c r="H511">
         <v>1</v>
@@ -89874,7 +89828,7 @@
     </row>
     <row r="512" spans="7:8">
       <c r="G512">
-        <v>637000000</v>
+        <v>346590000</v>
       </c>
       <c r="H512">
         <v>1</v>
@@ -89882,7 +89836,7 @@
     </row>
     <row r="513" spans="7:8">
       <c r="G513">
-        <v>638000000</v>
+        <v>349000000</v>
       </c>
       <c r="H513">
         <v>1</v>
@@ -89890,7 +89844,7 @@
     </row>
     <row r="514" spans="7:8">
       <c r="G514">
-        <v>639000000</v>
+        <v>352000000</v>
       </c>
       <c r="H514">
         <v>1</v>
@@ -89898,15 +89852,15 @@
     </row>
     <row r="515" spans="7:8">
       <c r="G515">
-        <v>640000000</v>
+        <v>353000000</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="7:8">
       <c r="G516">
-        <v>642000000</v>
+        <v>363000000</v>
       </c>
       <c r="H516">
         <v>1</v>
@@ -89914,7 +89868,7 @@
     </row>
     <row r="517" spans="7:8">
       <c r="G517">
-        <v>645000000</v>
+        <v>369000000</v>
       </c>
       <c r="H517">
         <v>1</v>
@@ -89922,15 +89876,15 @@
     </row>
     <row r="518" spans="7:8">
       <c r="G518">
-        <v>648000000</v>
+        <v>370000000</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="7:8">
       <c r="G519">
-        <v>657000000</v>
+        <v>375480000</v>
       </c>
       <c r="H519">
         <v>1</v>
@@ -89938,7 +89892,7 @@
     </row>
     <row r="520" spans="7:8">
       <c r="G520">
-        <v>660000000</v>
+        <v>377000000</v>
       </c>
       <c r="H520">
         <v>1</v>
@@ -89946,7 +89900,7 @@
     </row>
     <row r="521" spans="7:8">
       <c r="G521">
-        <v>663000000</v>
+        <v>379500000</v>
       </c>
       <c r="H521">
         <v>1</v>
@@ -89954,23 +89908,23 @@
     </row>
     <row r="522" spans="7:8">
       <c r="G522">
-        <v>672000000</v>
+        <v>380000000</v>
       </c>
       <c r="H522">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="7:8">
       <c r="G523">
-        <v>680000000</v>
+        <v>384000000</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="7:8">
       <c r="G524">
-        <v>688000000</v>
+        <v>386000000</v>
       </c>
       <c r="H524">
         <v>1</v>
@@ -89978,7 +89932,7 @@
     </row>
     <row r="525" spans="7:8">
       <c r="G525">
-        <v>690000000</v>
+        <v>388000000</v>
       </c>
       <c r="H525">
         <v>1</v>
@@ -89986,31 +89940,31 @@
     </row>
     <row r="526" spans="7:8">
       <c r="G526">
-        <v>693280000</v>
+        <v>400000000</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="527" spans="7:8">
       <c r="G527">
-        <v>698000000</v>
+        <v>408000000</v>
       </c>
       <c r="H527">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="7:8">
       <c r="G528">
-        <v>700000000</v>
+        <v>410000000</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="7:8">
       <c r="G529">
-        <v>702000000</v>
+        <v>411000000</v>
       </c>
       <c r="H529">
         <v>1</v>
@@ -90018,7 +89972,7 @@
     </row>
     <row r="530" spans="7:8">
       <c r="G530">
-        <v>705000000</v>
+        <v>412000000</v>
       </c>
       <c r="H530">
         <v>1</v>
@@ -90026,39 +89980,39 @@
     </row>
     <row r="531" spans="7:8">
       <c r="G531">
-        <v>713000000</v>
+        <v>413000000</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="7:8">
       <c r="G532">
-        <v>719000000</v>
+        <v>413950000</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="7:8">
       <c r="G533">
-        <v>720000000</v>
+        <v>415600000</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="7:8">
       <c r="G534">
-        <v>730000000</v>
+        <v>418000000</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="7:8">
       <c r="G535">
-        <v>746000000</v>
+        <v>419000000</v>
       </c>
       <c r="H535">
         <v>1</v>
@@ -90066,15 +90020,15 @@
     </row>
     <row r="536" spans="7:8">
       <c r="G536">
-        <v>747000000</v>
+        <v>421800000</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="7:8">
       <c r="G537">
-        <v>748360000</v>
+        <v>425000000</v>
       </c>
       <c r="H537">
         <v>1</v>
@@ -90082,23 +90036,23 @@
     </row>
     <row r="538" spans="7:8">
       <c r="G538">
-        <v>751000000</v>
+        <v>429000000</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="7:8">
       <c r="G539">
-        <v>755000000</v>
+        <v>434000000</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="7:8">
       <c r="G540">
-        <v>756000000</v>
+        <v>435000000</v>
       </c>
       <c r="H540">
         <v>1</v>
@@ -90106,23 +90060,23 @@
     </row>
     <row r="541" spans="7:8">
       <c r="G541">
-        <v>757000000</v>
+        <v>436000000</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="7:8">
       <c r="G542">
-        <v>760000000</v>
+        <v>437000000</v>
       </c>
       <c r="H542">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="7:8">
       <c r="G543">
-        <v>765000000</v>
+        <v>438600000</v>
       </c>
       <c r="H543">
         <v>1</v>
@@ -90130,7 +90084,7 @@
     </row>
     <row r="544" spans="7:8">
       <c r="G544">
-        <v>766000000</v>
+        <v>446810000</v>
       </c>
       <c r="H544">
         <v>1</v>
@@ -90138,7 +90092,7 @@
     </row>
     <row r="545" spans="7:8">
       <c r="G545">
-        <v>767000000</v>
+        <v>448000000</v>
       </c>
       <c r="H545">
         <v>1</v>
@@ -90146,7 +90100,7 @@
     </row>
     <row r="546" spans="7:8">
       <c r="G546">
-        <v>772000000</v>
+        <v>449000000</v>
       </c>
       <c r="H546">
         <v>1</v>
@@ -90154,23 +90108,23 @@
     </row>
     <row r="547" spans="7:8">
       <c r="G547">
-        <v>775000000</v>
+        <v>449100000</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="7:8">
       <c r="G548">
-        <v>778000000</v>
+        <v>450000000</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="549" spans="7:8">
       <c r="G549">
-        <v>780000000</v>
+        <v>454850000</v>
       </c>
       <c r="H549">
         <v>1</v>
@@ -90178,15 +90132,15 @@
     </row>
     <row r="550" spans="7:8">
       <c r="G550">
-        <v>782000000</v>
+        <v>457000000</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="7:8">
       <c r="G551">
-        <v>789000000</v>
+        <v>458000000</v>
       </c>
       <c r="H551">
         <v>1</v>
@@ -90194,15 +90148,15 @@
     </row>
     <row r="552" spans="7:8">
       <c r="G552">
-        <v>792000000</v>
+        <v>459000000</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="7:8">
       <c r="G553">
-        <v>796000000</v>
+        <v>460000000</v>
       </c>
       <c r="H553">
         <v>1</v>
@@ -90210,15 +90164,15 @@
     </row>
     <row r="554" spans="7:8">
       <c r="G554">
-        <v>800000000</v>
+        <v>462000000</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="7:8">
       <c r="G555">
-        <v>800800000</v>
+        <v>462500000</v>
       </c>
       <c r="H555">
         <v>1</v>
@@ -90226,7 +90180,7 @@
     </row>
     <row r="556" spans="7:8">
       <c r="G556">
-        <v>802000000</v>
+        <v>467660000</v>
       </c>
       <c r="H556">
         <v>1</v>
@@ -90234,7 +90188,7 @@
     </row>
     <row r="557" spans="7:8">
       <c r="G557">
-        <v>805000000</v>
+        <v>468000000</v>
       </c>
       <c r="H557">
         <v>1</v>
@@ -90242,7 +90196,7 @@
     </row>
     <row r="558" spans="7:8">
       <c r="G558">
-        <v>806000000</v>
+        <v>474460000</v>
       </c>
       <c r="H558">
         <v>1</v>
@@ -90250,7 +90204,7 @@
     </row>
     <row r="559" spans="7:8">
       <c r="G559">
-        <v>811680000</v>
+        <v>475000000</v>
       </c>
       <c r="H559">
         <v>1</v>
@@ -90258,15 +90212,15 @@
     </row>
     <row r="560" spans="7:8">
       <c r="G560">
-        <v>819880000</v>
+        <v>476000000</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="7:8">
       <c r="G561">
-        <v>824000000</v>
+        <v>480000000</v>
       </c>
       <c r="H561">
         <v>1</v>
@@ -90274,7 +90228,7 @@
     </row>
     <row r="562" spans="7:8">
       <c r="G562">
-        <v>830000000</v>
+        <v>481000000</v>
       </c>
       <c r="H562">
         <v>1</v>
@@ -90282,15 +90236,15 @@
     </row>
     <row r="563" spans="7:8">
       <c r="G563">
-        <v>836000000</v>
+        <v>484000000</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="7:8">
       <c r="G564">
-        <v>838000000</v>
+        <v>485000000</v>
       </c>
       <c r="H564">
         <v>1</v>
@@ -90298,15 +90252,15 @@
     </row>
     <row r="565" spans="7:8">
       <c r="G565">
-        <v>840000000</v>
+        <v>486000000</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="7:8">
       <c r="G566">
-        <v>843000000</v>
+        <v>492280000</v>
       </c>
       <c r="H566">
         <v>1</v>
@@ -90314,7 +90268,7 @@
     </row>
     <row r="567" spans="7:8">
       <c r="G567">
-        <v>846000000</v>
+        <v>493000000</v>
       </c>
       <c r="H567">
         <v>1</v>
@@ -90322,7 +90276,7 @@
     </row>
     <row r="568" spans="7:8">
       <c r="G568">
-        <v>856000000</v>
+        <v>494000000</v>
       </c>
       <c r="H568">
         <v>1</v>
@@ -90330,15 +90284,15 @@
     </row>
     <row r="569" spans="7:8">
       <c r="G569">
-        <v>869400000</v>
+        <v>500000000</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="7:8">
       <c r="G570">
-        <v>869990000</v>
+        <v>505000000</v>
       </c>
       <c r="H570">
         <v>1</v>
@@ -90346,7 +90300,7 @@
     </row>
     <row r="571" spans="7:8">
       <c r="G571">
-        <v>875000000</v>
+        <v>510000000</v>
       </c>
       <c r="H571">
         <v>1</v>
@@ -90354,7 +90308,7 @@
     </row>
     <row r="572" spans="7:8">
       <c r="G572">
-        <v>881000000</v>
+        <v>526000000</v>
       </c>
       <c r="H572">
         <v>1</v>
@@ -90362,7 +90316,7 @@
     </row>
     <row r="573" spans="7:8">
       <c r="G573">
-        <v>882000000</v>
+        <v>527000000</v>
       </c>
       <c r="H573">
         <v>1</v>
@@ -90370,7 +90324,7 @@
     </row>
     <row r="574" spans="7:8">
       <c r="G574">
-        <v>896250000</v>
+        <v>529000000</v>
       </c>
       <c r="H574">
         <v>1</v>
@@ -90378,15 +90332,15 @@
     </row>
     <row r="575" spans="7:8">
       <c r="G575">
-        <v>900000000</v>
+        <v>541000000</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="7:8">
       <c r="G576">
-        <v>904000000</v>
+        <v>541380000</v>
       </c>
       <c r="H576">
         <v>1</v>
@@ -90394,7 +90348,7 @@
     </row>
     <row r="577" spans="7:8">
       <c r="G577">
-        <v>905000000</v>
+        <v>543000000</v>
       </c>
       <c r="H577">
         <v>1</v>
@@ -90402,7 +90356,7 @@
     </row>
     <row r="578" spans="7:8">
       <c r="G578">
-        <v>911000000</v>
+        <v>558000000</v>
       </c>
       <c r="H578">
         <v>1</v>
@@ -90410,15 +90364,15 @@
     </row>
     <row r="579" spans="7:8">
       <c r="G579">
-        <v>920000000</v>
+        <v>560000000</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="7:8">
       <c r="G580">
-        <v>938000000</v>
+        <v>563000000</v>
       </c>
       <c r="H580">
         <v>1</v>
@@ -90426,7 +90380,7 @@
     </row>
     <row r="581" spans="7:8">
       <c r="G581">
-        <v>943000000</v>
+        <v>565000000</v>
       </c>
       <c r="H581">
         <v>2</v>
@@ -90434,15 +90388,15 @@
     </row>
     <row r="582" spans="7:8">
       <c r="G582">
-        <v>945000000</v>
+        <v>570000000</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="7:8">
       <c r="G583">
-        <v>947000000</v>
+        <v>579200000</v>
       </c>
       <c r="H583">
         <v>1</v>
@@ -90450,7 +90404,7 @@
     </row>
     <row r="584" spans="7:8">
       <c r="G584">
-        <v>952760000</v>
+        <v>586000000</v>
       </c>
       <c r="H584">
         <v>1</v>
@@ -90458,7 +90412,7 @@
     </row>
     <row r="585" spans="7:8">
       <c r="G585">
-        <v>959000000</v>
+        <v>608000000</v>
       </c>
       <c r="H585">
         <v>1</v>
@@ -90466,15 +90420,15 @@
     </row>
     <row r="586" spans="7:8">
       <c r="G586">
-        <v>960000000</v>
+        <v>612000000</v>
       </c>
       <c r="H586">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="7:8">
       <c r="G587">
-        <v>962000000</v>
+        <v>614000000</v>
       </c>
       <c r="H587">
         <v>1</v>
@@ -90482,7 +90436,7 @@
     </row>
     <row r="588" spans="7:8">
       <c r="G588">
-        <v>972000000</v>
+        <v>614350000</v>
       </c>
       <c r="H588">
         <v>1</v>
@@ -90490,7 +90444,7 @@
     </row>
     <row r="589" spans="7:8">
       <c r="G589">
-        <v>976000000</v>
+        <v>616000000</v>
       </c>
       <c r="H589">
         <v>1</v>
@@ -90498,7 +90452,7 @@
     </row>
     <row r="590" spans="7:8">
       <c r="G590">
-        <v>986000000</v>
+        <v>618000000</v>
       </c>
       <c r="H590">
         <v>1</v>
@@ -90506,7 +90460,7 @@
     </row>
     <row r="591" spans="7:8">
       <c r="G591">
-        <v>990000000</v>
+        <v>619000000</v>
       </c>
       <c r="H591">
         <v>1</v>
@@ -90514,7 +90468,7 @@
     </row>
     <row r="592" spans="7:8">
       <c r="G592">
-        <v>993000000</v>
+        <v>620000000</v>
       </c>
       <c r="H592">
         <v>1</v>
@@ -90522,15 +90476,15 @@
     </row>
     <row r="593" spans="7:8">
       <c r="G593">
-        <v>1000000000</v>
+        <v>637000000</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="7:8">
       <c r="G594">
-        <v>1010000000</v>
+        <v>639000000</v>
       </c>
       <c r="H594">
         <v>1</v>
@@ -90538,7 +90492,7 @@
     </row>
     <row r="595" spans="7:8">
       <c r="G595">
-        <v>1022000000</v>
+        <v>642000000</v>
       </c>
       <c r="H595">
         <v>1</v>
@@ -90546,7 +90500,7 @@
     </row>
     <row r="596" spans="7:8">
       <c r="G596">
-        <v>1025000000</v>
+        <v>648000000</v>
       </c>
       <c r="H596">
         <v>1</v>
@@ -90554,15 +90508,15 @@
     </row>
     <row r="597" spans="7:8">
       <c r="G597">
-        <v>1034000000</v>
+        <v>657000000</v>
       </c>
       <c r="H597">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="7:8">
       <c r="G598">
-        <v>1036580000</v>
+        <v>663000000</v>
       </c>
       <c r="H598">
         <v>1</v>
@@ -90570,23 +90524,23 @@
     </row>
     <row r="599" spans="7:8">
       <c r="G599">
-        <v>1039000000</v>
+        <v>672000000</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="600" spans="7:8">
       <c r="G600">
-        <v>1040760000</v>
+        <v>680000000</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="7:8">
       <c r="G601">
-        <v>1042000000</v>
+        <v>688000000</v>
       </c>
       <c r="H601">
         <v>1</v>
@@ -90594,7 +90548,7 @@
     </row>
     <row r="602" spans="7:8">
       <c r="G602">
-        <v>1045000000</v>
+        <v>690000000</v>
       </c>
       <c r="H602">
         <v>1</v>
@@ -90602,7 +90556,7 @@
     </row>
     <row r="603" spans="7:8">
       <c r="G603">
-        <v>1047000000</v>
+        <v>693280000</v>
       </c>
       <c r="H603">
         <v>1</v>
@@ -90610,23 +90564,23 @@
     </row>
     <row r="604" spans="7:8">
       <c r="G604">
-        <v>1057000000</v>
+        <v>698000000</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="7:8">
       <c r="G605">
-        <v>1063530000</v>
+        <v>700000000</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="7:8">
       <c r="G606">
-        <v>1065000000</v>
+        <v>702000000</v>
       </c>
       <c r="H606">
         <v>1</v>
@@ -90634,7 +90588,7 @@
     </row>
     <row r="607" spans="7:8">
       <c r="G607">
-        <v>1066000000</v>
+        <v>713000000</v>
       </c>
       <c r="H607">
         <v>1</v>
@@ -90642,23 +90596,23 @@
     </row>
     <row r="608" spans="7:8">
       <c r="G608">
-        <v>1069000000</v>
+        <v>719000000</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="7:8">
       <c r="G609">
-        <v>1074000000</v>
+        <v>720000000</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="7:8">
       <c r="G610">
-        <v>1093000000</v>
+        <v>746000000</v>
       </c>
       <c r="H610">
         <v>1</v>
@@ -90666,15 +90620,15 @@
     </row>
     <row r="611" spans="7:8">
       <c r="G611">
-        <v>1100000000</v>
+        <v>747000000</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="7:8">
       <c r="G612">
-        <v>1106400000</v>
+        <v>748360000</v>
       </c>
       <c r="H612">
         <v>1</v>
@@ -90682,7 +90636,7 @@
     </row>
     <row r="613" spans="7:8">
       <c r="G613">
-        <v>1128208000</v>
+        <v>755000000</v>
       </c>
       <c r="H613">
         <v>1</v>
@@ -90690,7 +90644,7 @@
     </row>
     <row r="614" spans="7:8">
       <c r="G614">
-        <v>1141000000</v>
+        <v>756000000</v>
       </c>
       <c r="H614">
         <v>1</v>
@@ -90698,7 +90652,7 @@
     </row>
     <row r="615" spans="7:8">
       <c r="G615">
-        <v>1166000000</v>
+        <v>765000000</v>
       </c>
       <c r="H615">
         <v>1</v>
@@ -90706,7 +90660,7 @@
     </row>
     <row r="616" spans="7:8">
       <c r="G616">
-        <v>1173000000</v>
+        <v>772000000</v>
       </c>
       <c r="H616">
         <v>1</v>
@@ -90714,15 +90668,15 @@
     </row>
     <row r="617" spans="7:8">
       <c r="G617">
-        <v>1181600000</v>
+        <v>775000000</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="7:8">
       <c r="G618">
-        <v>1183000000</v>
+        <v>778000000</v>
       </c>
       <c r="H618">
         <v>1</v>
@@ -90730,7 +90684,7 @@
     </row>
     <row r="619" spans="7:8">
       <c r="G619">
-        <v>1200000000</v>
+        <v>780000000</v>
       </c>
       <c r="H619">
         <v>1</v>
@@ -90738,23 +90692,23 @@
     </row>
     <row r="620" spans="7:8">
       <c r="G620">
-        <v>1217000000</v>
+        <v>792000000</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="7:8">
       <c r="G621">
-        <v>1222000000</v>
+        <v>800000000</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="7:8">
       <c r="G622">
-        <v>1228000000</v>
+        <v>800800000</v>
       </c>
       <c r="H622">
         <v>1</v>
@@ -90762,15 +90716,15 @@
     </row>
     <row r="623" spans="7:8">
       <c r="G623">
-        <v>1230000000</v>
+        <v>802000000</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="7:8">
       <c r="G624">
-        <v>1250000000</v>
+        <v>805000000</v>
       </c>
       <c r="H624">
         <v>1</v>
@@ -90778,7 +90732,7 @@
     </row>
     <row r="625" spans="7:8">
       <c r="G625">
-        <v>1252500000</v>
+        <v>811680000</v>
       </c>
       <c r="H625">
         <v>1</v>
@@ -90786,7 +90740,7 @@
     </row>
     <row r="626" spans="7:8">
       <c r="G626">
-        <v>1266000000</v>
+        <v>819880000</v>
       </c>
       <c r="H626">
         <v>1</v>
@@ -90794,7 +90748,7 @@
     </row>
     <row r="627" spans="7:8">
       <c r="G627">
-        <v>1266540000</v>
+        <v>830000000</v>
       </c>
       <c r="H627">
         <v>1</v>
@@ -90802,7 +90756,7 @@
     </row>
     <row r="628" spans="7:8">
       <c r="G628">
-        <v>1284856000</v>
+        <v>836000000</v>
       </c>
       <c r="H628">
         <v>1</v>
@@ -90810,7 +90764,7 @@
     </row>
     <row r="629" spans="7:8">
       <c r="G629">
-        <v>1288000000</v>
+        <v>838000000</v>
       </c>
       <c r="H629">
         <v>1</v>
@@ -90818,15 +90772,15 @@
     </row>
     <row r="630" spans="7:8">
       <c r="G630">
-        <v>1306000000</v>
+        <v>840000000</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="7:8">
       <c r="G631">
-        <v>1310400000</v>
+        <v>856000000</v>
       </c>
       <c r="H631">
         <v>1</v>
@@ -90834,15 +90788,15 @@
     </row>
     <row r="632" spans="7:8">
       <c r="G632">
-        <v>1320000000</v>
+        <v>869400000</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="7:8">
       <c r="G633">
-        <v>1333340000</v>
+        <v>875000000</v>
       </c>
       <c r="H633">
         <v>1</v>
@@ -90850,7 +90804,7 @@
     </row>
     <row r="634" spans="7:8">
       <c r="G634">
-        <v>1360000000</v>
+        <v>882000000</v>
       </c>
       <c r="H634">
         <v>1</v>
@@ -90858,15 +90812,15 @@
     </row>
     <row r="635" spans="7:8">
       <c r="G635">
-        <v>1378000000</v>
+        <v>900000000</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="7:8">
       <c r="G636">
-        <v>1380000000</v>
+        <v>904000000</v>
       </c>
       <c r="H636">
         <v>1</v>
@@ -90874,7 +90828,7 @@
     </row>
     <row r="637" spans="7:8">
       <c r="G637">
-        <v>1383200000</v>
+        <v>905000000</v>
       </c>
       <c r="H637">
         <v>1</v>
@@ -90882,7 +90836,7 @@
     </row>
     <row r="638" spans="7:8">
       <c r="G638">
-        <v>1393000000</v>
+        <v>911000000</v>
       </c>
       <c r="H638">
         <v>1</v>
@@ -90890,7 +90844,7 @@
     </row>
     <row r="639" spans="7:8">
       <c r="G639">
-        <v>1394000000</v>
+        <v>920000000</v>
       </c>
       <c r="H639">
         <v>1</v>
@@ -90898,7 +90852,7 @@
     </row>
     <row r="640" spans="7:8">
       <c r="G640">
-        <v>1396800000</v>
+        <v>938000000</v>
       </c>
       <c r="H640">
         <v>1</v>
@@ -90906,7 +90860,7 @@
     </row>
     <row r="641" spans="7:8">
       <c r="G641">
-        <v>1400000000</v>
+        <v>945000000</v>
       </c>
       <c r="H641">
         <v>1</v>
@@ -90914,7 +90868,7 @@
     </row>
     <row r="642" spans="7:8">
       <c r="G642">
-        <v>1422000000</v>
+        <v>947000000</v>
       </c>
       <c r="H642">
         <v>1</v>
@@ -90922,7 +90876,7 @@
     </row>
     <row r="643" spans="7:8">
       <c r="G643">
-        <v>1423000000</v>
+        <v>959000000</v>
       </c>
       <c r="H643">
         <v>1</v>
@@ -90930,23 +90884,23 @@
     </row>
     <row r="644" spans="7:8">
       <c r="G644">
-        <v>1480000000</v>
+        <v>960000000</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="645" spans="7:8">
       <c r="G645">
-        <v>1500000000</v>
+        <v>962000000</v>
       </c>
       <c r="H645">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="7:8">
       <c r="G646">
-        <v>1512000000</v>
+        <v>972000000</v>
       </c>
       <c r="H646">
         <v>1</v>
@@ -90954,7 +90908,7 @@
     </row>
     <row r="647" spans="7:8">
       <c r="G647">
-        <v>1519000000</v>
+        <v>976000000</v>
       </c>
       <c r="H647">
         <v>1</v>
@@ -90962,7 +90916,7 @@
     </row>
     <row r="648" spans="7:8">
       <c r="G648">
-        <v>1522000000</v>
+        <v>986000000</v>
       </c>
       <c r="H648">
         <v>1</v>
@@ -90970,7 +90924,7 @@
     </row>
     <row r="649" spans="7:8">
       <c r="G649">
-        <v>1524080000</v>
+        <v>990000000</v>
       </c>
       <c r="H649">
         <v>1</v>
@@ -90978,7 +90932,7 @@
     </row>
     <row r="650" spans="7:8">
       <c r="G650">
-        <v>1536000000</v>
+        <v>1010000000</v>
       </c>
       <c r="H650">
         <v>1</v>
@@ -90986,7 +90940,7 @@
     </row>
     <row r="651" spans="7:8">
       <c r="G651">
-        <v>1541000000</v>
+        <v>1025000000</v>
       </c>
       <c r="H651">
         <v>1</v>
@@ -90994,7 +90948,7 @@
     </row>
     <row r="652" spans="7:8">
       <c r="G652">
-        <v>1543800000</v>
+        <v>1039000000</v>
       </c>
       <c r="H652">
         <v>1</v>
@@ -91002,7 +90956,7 @@
     </row>
     <row r="653" spans="7:8">
       <c r="G653">
-        <v>1552320000</v>
+        <v>1045000000</v>
       </c>
       <c r="H653">
         <v>1</v>
@@ -91010,7 +90964,7 @@
     </row>
     <row r="654" spans="7:8">
       <c r="G654">
-        <v>1614000000</v>
+        <v>1047000000</v>
       </c>
       <c r="H654">
         <v>1</v>
@@ -91018,7 +90972,7 @@
     </row>
     <row r="655" spans="7:8">
       <c r="G655">
-        <v>1630800000</v>
+        <v>1063530000</v>
       </c>
       <c r="H655">
         <v>1</v>
@@ -91026,7 +90980,7 @@
     </row>
     <row r="656" spans="7:8">
       <c r="G656">
-        <v>1677000000</v>
+        <v>1065000000</v>
       </c>
       <c r="H656">
         <v>1</v>
@@ -91034,7 +90988,7 @@
     </row>
     <row r="657" spans="7:8">
       <c r="G657">
-        <v>1680000000</v>
+        <v>1066000000</v>
       </c>
       <c r="H657">
         <v>1</v>
@@ -91042,15 +90996,15 @@
     </row>
     <row r="658" spans="7:8">
       <c r="G658">
-        <v>1700000000</v>
+        <v>1069000000</v>
       </c>
       <c r="H658">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="7:8">
       <c r="G659">
-        <v>1720000000</v>
+        <v>1074000000</v>
       </c>
       <c r="H659">
         <v>1</v>
@@ -91058,7 +91012,7 @@
     </row>
     <row r="660" spans="7:8">
       <c r="G660">
-        <v>1782000000</v>
+        <v>1093000000</v>
       </c>
       <c r="H660">
         <v>1</v>
@@ -91066,15 +91020,15 @@
     </row>
     <row r="661" spans="7:8">
       <c r="G661">
-        <v>1800000000</v>
+        <v>1106400000</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="7:8">
       <c r="G662">
-        <v>1806000000</v>
+        <v>1141000000</v>
       </c>
       <c r="H662">
         <v>1</v>
@@ -91082,7 +91036,7 @@
     </row>
     <row r="663" spans="7:8">
       <c r="G663">
-        <v>1815000000</v>
+        <v>1173000000</v>
       </c>
       <c r="H663">
         <v>1</v>
@@ -91090,7 +91044,7 @@
     </row>
     <row r="664" spans="7:8">
       <c r="G664">
-        <v>1816000000</v>
+        <v>1181600000</v>
       </c>
       <c r="H664">
         <v>1</v>
@@ -91098,7 +91052,7 @@
     </row>
     <row r="665" spans="7:8">
       <c r="G665">
-        <v>1820000000</v>
+        <v>1183000000</v>
       </c>
       <c r="H665">
         <v>1</v>
@@ -91106,7 +91060,7 @@
     </row>
     <row r="666" spans="7:8">
       <c r="G666">
-        <v>1869120000</v>
+        <v>1217000000</v>
       </c>
       <c r="H666">
         <v>1</v>
@@ -91114,7 +91068,7 @@
     </row>
     <row r="667" spans="7:8">
       <c r="G667">
-        <v>1930000000</v>
+        <v>1250000000</v>
       </c>
       <c r="H667">
         <v>1</v>
@@ -91122,7 +91076,7 @@
     </row>
     <row r="668" spans="7:8">
       <c r="G668">
-        <v>1940760000</v>
+        <v>1252500000</v>
       </c>
       <c r="H668">
         <v>1</v>
@@ -91130,7 +91084,7 @@
     </row>
     <row r="669" spans="7:8">
       <c r="G669">
-        <v>1947530000</v>
+        <v>1266000000</v>
       </c>
       <c r="H669">
         <v>1</v>
@@ -91138,7 +91092,7 @@
     </row>
     <row r="670" spans="7:8">
       <c r="G670">
-        <v>1980000000</v>
+        <v>1266540000</v>
       </c>
       <c r="H670">
         <v>1</v>
@@ -91146,7 +91100,7 @@
     </row>
     <row r="671" spans="7:8">
       <c r="G671">
-        <v>1991000000</v>
+        <v>1284856000</v>
       </c>
       <c r="H671">
         <v>1</v>
@@ -91154,15 +91108,15 @@
     </row>
     <row r="672" spans="7:8">
       <c r="G672">
-        <v>2000000000</v>
+        <v>1288000000</v>
       </c>
       <c r="H672">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="7:8">
       <c r="G673">
-        <v>2016000000</v>
+        <v>1306000000</v>
       </c>
       <c r="H673">
         <v>1</v>
@@ -91170,7 +91124,7 @@
     </row>
     <row r="674" spans="7:8">
       <c r="G674">
-        <v>2066000000</v>
+        <v>1310400000</v>
       </c>
       <c r="H674">
         <v>1</v>
@@ -91178,15 +91132,15 @@
     </row>
     <row r="675" spans="7:8">
       <c r="G675">
-        <v>2093000000</v>
+        <v>1320000000</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="7:8">
       <c r="G676">
-        <v>2100000000</v>
+        <v>1333340000</v>
       </c>
       <c r="H676">
         <v>1</v>
@@ -91194,7 +91148,7 @@
     </row>
     <row r="677" spans="7:8">
       <c r="G677">
-        <v>2129000000</v>
+        <v>1360000000</v>
       </c>
       <c r="H677">
         <v>1</v>
@@ -91202,15 +91156,15 @@
     </row>
     <row r="678" spans="7:8">
       <c r="G678">
-        <v>2150000000</v>
+        <v>1383200000</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="7:8">
       <c r="G679">
-        <v>2200000000</v>
+        <v>1393000000</v>
       </c>
       <c r="H679">
         <v>1</v>
@@ -91218,7 +91172,7 @@
     </row>
     <row r="680" spans="7:8">
       <c r="G680">
-        <v>2227000000</v>
+        <v>1394000000</v>
       </c>
       <c r="H680">
         <v>1</v>
@@ -91226,7 +91180,7 @@
     </row>
     <row r="681" spans="7:8">
       <c r="G681">
-        <v>2300000000</v>
+        <v>1396800000</v>
       </c>
       <c r="H681">
         <v>1</v>
@@ -91234,7 +91188,7 @@
     </row>
     <row r="682" spans="7:8">
       <c r="G682">
-        <v>2330000000</v>
+        <v>1400000000</v>
       </c>
       <c r="H682">
         <v>1</v>
@@ -91242,7 +91196,7 @@
     </row>
     <row r="683" spans="7:8">
       <c r="G683">
-        <v>2370000000</v>
+        <v>1423000000</v>
       </c>
       <c r="H683">
         <v>1</v>
@@ -91250,7 +91204,7 @@
     </row>
     <row r="684" spans="7:8">
       <c r="G684">
-        <v>2400000000</v>
+        <v>1480000000</v>
       </c>
       <c r="H684">
         <v>1</v>
@@ -91258,31 +91212,31 @@
     </row>
     <row r="685" spans="7:8">
       <c r="G685">
-        <v>2450000000</v>
+        <v>1519000000</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="7:8">
       <c r="G686">
-        <v>2500000000</v>
+        <v>1522000000</v>
       </c>
       <c r="H686">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="7:8">
       <c r="G687">
-        <v>2520000000</v>
+        <v>1536000000</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="7:8">
       <c r="G688">
-        <v>2650000000</v>
+        <v>1541000000</v>
       </c>
       <c r="H688">
         <v>1</v>
@@ -91290,7 +91244,7 @@
     </row>
     <row r="689" spans="7:8">
       <c r="G689">
-        <v>2700000000</v>
+        <v>1543800000</v>
       </c>
       <c r="H689">
         <v>1</v>
@@ -91298,7 +91252,7 @@
     </row>
     <row r="690" spans="7:8">
       <c r="G690">
-        <v>2782500000</v>
+        <v>1552320000</v>
       </c>
       <c r="H690">
         <v>1</v>
@@ -91306,15 +91260,15 @@
     </row>
     <row r="691" spans="7:8">
       <c r="G691">
-        <v>2800000000</v>
+        <v>1614000000</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="7:8">
       <c r="G692">
-        <v>2808960000</v>
+        <v>1677000000</v>
       </c>
       <c r="H692">
         <v>1</v>
@@ -91322,7 +91276,7 @@
     </row>
     <row r="693" spans="7:8">
       <c r="G693">
-        <v>2816660000</v>
+        <v>1680000000</v>
       </c>
       <c r="H693">
         <v>1</v>
@@ -91330,7 +91284,7 @@
     </row>
     <row r="694" spans="7:8">
       <c r="G694">
-        <v>2937000000</v>
+        <v>1720000000</v>
       </c>
       <c r="H694">
         <v>1</v>
@@ -91338,15 +91292,15 @@
     </row>
     <row r="695" spans="7:8">
       <c r="G695">
-        <v>3000000000</v>
+        <v>1806000000</v>
       </c>
       <c r="H695">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="7:8">
       <c r="G696">
-        <v>3019200000</v>
+        <v>1815000000</v>
       </c>
       <c r="H696">
         <v>1</v>
@@ -91354,7 +91308,7 @@
     </row>
     <row r="697" spans="7:8">
       <c r="G697">
-        <v>3059000000</v>
+        <v>1816000000</v>
       </c>
       <c r="H697">
         <v>1</v>
@@ -91362,7 +91316,7 @@
     </row>
     <row r="698" spans="7:8">
       <c r="G698">
-        <v>3154000000</v>
+        <v>1820000000</v>
       </c>
       <c r="H698">
         <v>1</v>
@@ -91370,7 +91324,7 @@
     </row>
     <row r="699" spans="7:8">
       <c r="G699">
-        <v>3166000000</v>
+        <v>1869120000</v>
       </c>
       <c r="H699">
         <v>1</v>
@@ -91378,7 +91332,7 @@
     </row>
     <row r="700" spans="7:8">
       <c r="G700">
-        <v>3230000000</v>
+        <v>1940760000</v>
       </c>
       <c r="H700">
         <v>1</v>
@@ -91386,7 +91340,7 @@
     </row>
     <row r="701" spans="7:8">
       <c r="G701">
-        <v>3295000000</v>
+        <v>1947530000</v>
       </c>
       <c r="H701">
         <v>1</v>
@@ -91394,7 +91348,7 @@
     </row>
     <row r="702" spans="7:8">
       <c r="G702">
-        <v>3300000000</v>
+        <v>1980000000</v>
       </c>
       <c r="H702">
         <v>1</v>
@@ -91402,7 +91356,7 @@
     </row>
     <row r="703" spans="7:8">
       <c r="G703">
-        <v>3360000000</v>
+        <v>1991000000</v>
       </c>
       <c r="H703">
         <v>1</v>
@@ -91410,7 +91364,7 @@
     </row>
     <row r="704" spans="7:8">
       <c r="G704">
-        <v>3444000000</v>
+        <v>2016000000</v>
       </c>
       <c r="H704">
         <v>1</v>
@@ -91418,7 +91372,7 @@
     </row>
     <row r="705" spans="7:8">
       <c r="G705">
-        <v>3600000000</v>
+        <v>2100000000</v>
       </c>
       <c r="H705">
         <v>1</v>
@@ -91426,7 +91380,7 @@
     </row>
     <row r="706" spans="7:8">
       <c r="G706">
-        <v>3874000000</v>
+        <v>2129000000</v>
       </c>
       <c r="H706">
         <v>1</v>
@@ -91434,7 +91388,7 @@
     </row>
     <row r="707" spans="7:8">
       <c r="G707">
-        <v>3883000000</v>
+        <v>2200000000</v>
       </c>
       <c r="H707">
         <v>1</v>
@@ -91442,15 +91396,15 @@
     </row>
     <row r="708" spans="7:8">
       <c r="G708">
-        <v>3900000000</v>
+        <v>2227000000</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="7:8">
       <c r="G709">
-        <v>3970128000</v>
+        <v>2300000000</v>
       </c>
       <c r="H709">
         <v>1</v>
@@ -91458,7 +91412,7 @@
     </row>
     <row r="710" spans="7:8">
       <c r="G710">
-        <v>4000000000</v>
+        <v>2330000000</v>
       </c>
       <c r="H710">
         <v>1</v>
@@ -91466,7 +91420,7 @@
     </row>
     <row r="711" spans="7:8">
       <c r="G711">
-        <v>4085000000</v>
+        <v>2370000000</v>
       </c>
       <c r="H711">
         <v>1</v>
@@ -91474,7 +91428,7 @@
     </row>
     <row r="712" spans="7:8">
       <c r="G712">
-        <v>4100000000</v>
+        <v>2400000000</v>
       </c>
       <c r="H712">
         <v>1</v>
@@ -91482,15 +91436,15 @@
     </row>
     <row r="713" spans="7:8">
       <c r="G713">
-        <v>4110000000</v>
+        <v>2500000000</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="714" spans="7:8">
       <c r="G714">
-        <v>4200000000</v>
+        <v>2650000000</v>
       </c>
       <c r="H714">
         <v>1</v>
@@ -91498,7 +91452,7 @@
     </row>
     <row r="715" spans="7:8">
       <c r="G715">
-        <v>4310000000</v>
+        <v>2700000000</v>
       </c>
       <c r="H715">
         <v>1</v>
@@ -91506,15 +91460,15 @@
     </row>
     <row r="716" spans="7:8">
       <c r="G716">
-        <v>4589200000</v>
+        <v>2800000000</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="7:8">
       <c r="G717">
-        <v>4986000000</v>
+        <v>2808960000</v>
       </c>
       <c r="H717">
         <v>1</v>
@@ -91522,7 +91476,7 @@
     </row>
     <row r="718" spans="7:8">
       <c r="G718">
-        <v>5061000000</v>
+        <v>2937000000</v>
       </c>
       <c r="H718">
         <v>1</v>
@@ -91530,7 +91484,7 @@
     </row>
     <row r="719" spans="7:8">
       <c r="G719">
-        <v>5160000000</v>
+        <v>3059000000</v>
       </c>
       <c r="H719">
         <v>1</v>
@@ -91538,7 +91492,7 @@
     </row>
     <row r="720" spans="7:8">
       <c r="G720">
-        <v>5200000000</v>
+        <v>3230000000</v>
       </c>
       <c r="H720">
         <v>1</v>
@@ -91546,7 +91500,7 @@
     </row>
     <row r="721" spans="7:8">
       <c r="G721">
-        <v>5638000000</v>
+        <v>3295000000</v>
       </c>
       <c r="H721">
         <v>1</v>
@@ -91554,7 +91508,7 @@
     </row>
     <row r="722" spans="7:8">
       <c r="G722">
-        <v>5649600000</v>
+        <v>3300000000</v>
       </c>
       <c r="H722">
         <v>1</v>
@@ -91562,7 +91516,7 @@
     </row>
     <row r="723" spans="7:8">
       <c r="G723">
-        <v>6040000000</v>
+        <v>3360000000</v>
       </c>
       <c r="H723">
         <v>1</v>
@@ -91570,15 +91524,15 @@
     </row>
     <row r="724" spans="7:8">
       <c r="G724">
-        <v>6100000000</v>
+        <v>3600000000</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="7:8">
       <c r="G725">
-        <v>6300000000</v>
+        <v>3874000000</v>
       </c>
       <c r="H725">
         <v>1</v>
@@ -91586,7 +91540,7 @@
     </row>
     <row r="726" spans="7:8">
       <c r="G726">
-        <v>6536000000</v>
+        <v>3883000000</v>
       </c>
       <c r="H726">
         <v>1</v>
@@ -91594,7 +91548,7 @@
     </row>
     <row r="727" spans="7:8">
       <c r="G727">
-        <v>6930000000</v>
+        <v>3970128000</v>
       </c>
       <c r="H727">
         <v>1</v>
@@ -91602,7 +91556,7 @@
     </row>
     <row r="728" spans="7:8">
       <c r="G728">
-        <v>7000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="H728">
         <v>1</v>
@@ -91610,7 +91564,7 @@
     </row>
     <row r="729" spans="7:8">
       <c r="G729">
-        <v>7016632000</v>
+        <v>4085000000</v>
       </c>
       <c r="H729">
         <v>1</v>
@@ -91618,7 +91572,7 @@
     </row>
     <row r="730" spans="7:8">
       <c r="G730">
-        <v>7346000000</v>
+        <v>4200000000</v>
       </c>
       <c r="H730">
         <v>1</v>
@@ -91626,7 +91580,7 @@
     </row>
     <row r="731" spans="7:8">
       <c r="G731">
-        <v>7800000000</v>
+        <v>4589200000</v>
       </c>
       <c r="H731">
         <v>1</v>
@@ -91634,7 +91588,7 @@
     </row>
     <row r="732" spans="7:8">
       <c r="G732">
-        <v>8000000000</v>
+        <v>4986000000</v>
       </c>
       <c r="H732">
         <v>1</v>
@@ -91642,7 +91596,7 @@
     </row>
     <row r="733" spans="7:8">
       <c r="G733">
-        <v>9408000000</v>
+        <v>5061000000</v>
       </c>
       <c r="H733">
         <v>1</v>
@@ -91650,7 +91604,7 @@
     </row>
     <row r="734" spans="7:8">
       <c r="G734">
-        <v>9982000000</v>
+        <v>5160000000</v>
       </c>
       <c r="H734">
         <v>1</v>
@@ -91658,15 +91612,15 @@
     </row>
     <row r="735" spans="7:8">
       <c r="G735">
-        <v>10000000000</v>
+        <v>5200000000</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="7:8">
       <c r="G736">
-        <v>10030000000</v>
+        <v>5638000000</v>
       </c>
       <c r="H736">
         <v>1</v>
@@ -91674,7 +91628,7 @@
     </row>
     <row r="737" spans="7:8">
       <c r="G737">
-        <v>10080000000</v>
+        <v>5649600000</v>
       </c>
       <c r="H737">
         <v>1</v>
@@ -91682,7 +91636,7 @@
     </row>
     <row r="738" spans="7:8">
       <c r="G738">
-        <v>10325300000</v>
+        <v>6040000000</v>
       </c>
       <c r="H738">
         <v>1</v>
@@ -91690,15 +91644,15 @@
     </row>
     <row r="739" spans="7:8">
       <c r="G739">
-        <v>10670000000</v>
+        <v>6100000000</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="7:8">
       <c r="G740">
-        <v>10950000000</v>
+        <v>6300000000</v>
       </c>
       <c r="H740">
         <v>1</v>
@@ -91706,7 +91660,7 @@
     </row>
     <row r="741" spans="7:8">
       <c r="G741">
-        <v>11000000000</v>
+        <v>6536000000</v>
       </c>
       <c r="H741">
         <v>1</v>
@@ -91714,7 +91668,7 @@
     </row>
     <row r="742" spans="7:8">
       <c r="G742">
-        <v>11600000000</v>
+        <v>6930000000</v>
       </c>
       <c r="H742">
         <v>1</v>
@@ -91722,15 +91676,15 @@
     </row>
     <row r="743" spans="7:8">
       <c r="G743">
-        <v>12000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="7:8">
       <c r="G744">
-        <v>13000000000</v>
+        <v>7016632000</v>
       </c>
       <c r="H744">
         <v>1</v>
@@ -91738,7 +91692,7 @@
     </row>
     <row r="745" spans="7:8">
       <c r="G745">
-        <v>13800000000</v>
+        <v>7346000000</v>
       </c>
       <c r="H745">
         <v>1</v>
@@ -91746,7 +91700,7 @@
     </row>
     <row r="746" spans="7:8">
       <c r="G746">
-        <v>15000000000</v>
+        <v>7800000000</v>
       </c>
       <c r="H746">
         <v>1</v>
@@ -91754,7 +91708,7 @@
     </row>
     <row r="747" spans="7:8">
       <c r="G747">
-        <v>16900000000</v>
+        <v>8000000000</v>
       </c>
       <c r="H747">
         <v>1</v>
@@ -91762,7 +91716,7 @@
     </row>
     <row r="748" spans="7:8">
       <c r="G748">
-        <v>17000000000</v>
+        <v>9408000000</v>
       </c>
       <c r="H748">
         <v>1</v>
@@ -91770,7 +91724,7 @@
     </row>
     <row r="749" spans="7:8">
       <c r="G749">
-        <v>19000000000</v>
+        <v>10030000000</v>
       </c>
       <c r="H749">
         <v>1</v>
@@ -91778,7 +91732,7 @@
     </row>
     <row r="750" spans="7:8">
       <c r="G750">
-        <v>20000000000</v>
+        <v>10080000000</v>
       </c>
       <c r="H750">
         <v>1</v>
@@ -91786,7 +91740,7 @@
     </row>
     <row r="751" spans="7:8">
       <c r="G751">
-        <v>20160000000</v>
+        <v>10325300000</v>
       </c>
       <c r="H751">
         <v>1</v>
@@ -91794,7 +91748,7 @@
     </row>
     <row r="752" spans="7:8">
       <c r="G752">
-        <v>22176000000</v>
+        <v>10670000000</v>
       </c>
       <c r="H752">
         <v>1</v>
@@ -91802,7 +91756,7 @@
     </row>
     <row r="753" spans="7:8">
       <c r="G753">
-        <v>24864000000</v>
+        <v>11000000000</v>
       </c>
       <c r="H753">
         <v>1</v>
@@ -91810,7 +91764,7 @@
     </row>
     <row r="754" spans="7:8">
       <c r="G754">
-        <v>25400000000</v>
+        <v>11600000000</v>
       </c>
       <c r="H754">
         <v>1</v>
@@ -91818,15 +91772,15 @@
     </row>
     <row r="755" spans="7:8">
       <c r="G755">
-        <v>28300000000</v>
+        <v>12000000000</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="7:8">
       <c r="G756">
-        <v>28320000000</v>
+        <v>13800000000</v>
       </c>
       <c r="H756">
         <v>1</v>
@@ -91834,7 +91788,7 @@
     </row>
     <row r="757" spans="7:8">
       <c r="G757">
-        <v>29236000000</v>
+        <v>15000000000</v>
       </c>
       <c r="H757">
         <v>1</v>
@@ -91842,7 +91796,7 @@
     </row>
     <row r="758" spans="7:8">
       <c r="G758">
-        <v>30710400000</v>
+        <v>16900000000</v>
       </c>
       <c r="H758">
         <v>1</v>
@@ -91850,7 +91804,7 @@
     </row>
     <row r="759" spans="7:8">
       <c r="G759">
-        <v>37170000000</v>
+        <v>19000000000</v>
       </c>
       <c r="H759">
         <v>1</v>
@@ -91858,7 +91812,7 @@
     </row>
     <row r="760" spans="7:8">
       <c r="G760">
-        <v>46644000000</v>
+        <v>20160000000</v>
       </c>
       <c r="H760">
         <v>1</v>
@@ -91866,7 +91820,7 @@
     </row>
     <row r="761" spans="7:8">
       <c r="G761">
-        <v>50160000000</v>
+        <v>24864000000</v>
       </c>
       <c r="H761">
         <v>1</v>
@@ -91874,7 +91828,7 @@
     </row>
     <row r="762" spans="7:8">
       <c r="G762">
-        <v>61837440000</v>
+        <v>25400000000</v>
       </c>
       <c r="H762">
         <v>1</v>
@@ -91882,7 +91836,7 @@
     </row>
     <row r="763" spans="7:8">
       <c r="G763">
-        <v>78000000000</v>
+        <v>28300000000</v>
       </c>
       <c r="H763">
         <v>1</v>
@@ -91890,18 +91844,26 @@
     </row>
     <row r="764" spans="7:8">
       <c r="G764">
+        <v>46644000000</v>
+      </c>
+      <c r="H764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="7:8">
+      <c r="G765">
+        <v>61837440000</v>
+      </c>
+      <c r="H765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="7:8">
+      <c r="G766">
         <v>100000000000</v>
       </c>
-      <c r="H764">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="765" spans="7:8">
-      <c r="G765" t="s">
-        <v>3523</v>
-      </c>
-      <c r="H765">
-        <v>3424</v>
+      <c r="H766">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
